--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_22_15.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_22_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>95530.10194342205</v>
+        <v>83732.57434882787</v>
       </c>
     </row>
     <row r="7">
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>84.07234124570731</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>95.44997870766048</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>95.44997870766048</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>95.44997870766048</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>4.111096708763768</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1417,19 +1417,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>56.07678504272418</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>95.44997870766052</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>95.44997870766052</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>95.44997870766052</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>23.88445949421941</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1451,28 +1451,28 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>84.07234124570736</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>95.44997870766052</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>95.44997870766052</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>95.44997870766052</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>80.49995530864159</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>3.572385937065732</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1505,13 +1505,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>95.44997870766048</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>95.44997870766048</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>95.44997870766048</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>13.91913838429699</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>13.91913838429699</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1615,13 +1615,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>95.44997870766051</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>95.44997870766051</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>84.07234124570732</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>4.111096708763753</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1666,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>95.44997870766052</v>
+        <v>95.44997870766051</v>
       </c>
       <c r="W14" t="n">
-        <v>95.44997870766052</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>95.44997870766052</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>79.96124453694357</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1691,25 +1691,25 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>95.44997870766052</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>95.44997870766052</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>95.44997870766052</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>84.07234124570734</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>80.49995530864159</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>3.572385937065729</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1739,16 +1739,16 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>95.44997870766051</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>95.44997870766051</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>95.44997870766051</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>13.91913838429702</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>13.91913838429705</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1846,19 +1846,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>107.3621491644614</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>121.8916316581079</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>121.8916316581079</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>121.8916316581079</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>107.3621491644614</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1931,22 +1931,22 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>104.7600130816054</v>
+        <v>107.3621491644614</v>
       </c>
       <c r="F18" t="n">
         <v>121.8916316581079</v>
       </c>
       <c r="G18" t="n">
-        <v>118.0923966805212</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>80.00854575966319</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>38.28796328765948</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>9.996493671227967</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1976,10 +1976,10 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>33.94036506538239</v>
       </c>
       <c r="U19" t="n">
-        <v>33.94036506538233</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>57.25903180363001</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2089,10 +2089,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>107.3621491644614</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>50.10311736083146</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>121.891631658108</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>121.891631658108</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>121.891631658108</v>
+        <v>121.8916316581079</v>
       </c>
     </row>
     <row r="21">
@@ -2165,10 +2165,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>121.891631658108</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>121.891631658108</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2177,10 +2177,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>80.00854575966318</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>29.90726690215383</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>47.08138215850109</v>
       </c>
       <c r="S21" t="n">
-        <v>119.3379681607525</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2222,13 +2222,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>60.28076700596038</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
     </row>
     <row r="22">
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>33.94036506538242</v>
+        <v>33.94036506538239</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>25.66137551878201</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="C23" t="n">
-        <v>121.8916316581081</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>121.8916316581081</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>121.8916316581081</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>57.25903180362994</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>81.70077364567953</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>50.10311736083148</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
     </row>
     <row r="24">
@@ -2399,19 +2399,19 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>121.8916316581081</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>105.9630878819918</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>121.8916316581081</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="G24" t="n">
-        <v>27.35360340479835</v>
+        <v>118.0923966805212</v>
       </c>
       <c r="H24" t="n">
         <v>80.00854575966318</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>47.08138215850109</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2465,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>121.8916316581081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>33.94036506538239</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>33.94036506538244</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>121.8916316581081</v>
+        <v>57.2590318036299</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2602,25 +2602,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>50.10311736083148</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>121.8916316581081</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="W26" t="n">
-        <v>121.8916316581081</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="X26" t="n">
-        <v>107.3621491644615</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2639,19 +2639,19 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>121.8916316581081</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="G27" t="n">
         <v>118.0923966805212</v>
       </c>
       <c r="H27" t="n">
-        <v>80.00854575966318</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2681,22 +2681,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>47.08138215850109</v>
       </c>
       <c r="S27" t="n">
-        <v>119.3379681607525</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>64.08000198354696</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>33.70650187974072</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>33.94036506538239</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2754,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>11.76994589361098</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>22.17041917177147</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2800,16 +2800,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>121.891631658108</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>121.891631658108</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="G29" t="n">
-        <v>107.3621491644615</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>107.3621491644614</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,10 +2845,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>121.891631658108</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2924,19 +2924,19 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>121.891631658108</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>121.891631658108</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="V30" t="n">
-        <v>121.891631658108</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="W30" t="n">
-        <v>107.3621491644611</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>107.3621491644614</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>33.94036506538239</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2994,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>33.94036506538239</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -3040,10 +3040,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>57.2590318036299</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3076,16 +3076,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>50.10311736083148</v>
       </c>
       <c r="S32" t="n">
-        <v>121.8916316581079</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>107.3621491644614</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>121.8916316581079</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>121.8916316581079</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
     </row>
     <row r="33">
@@ -3116,67 +3116,67 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>107.3621491644614</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
         <v>121.8916316581079</v>
       </c>
-      <c r="F33" t="n">
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
         <v>121.8916316581079</v>
       </c>
-      <c r="G33" t="n">
-        <v>29.9072669021537</v>
-      </c>
-      <c r="H33" t="n">
-        <v>80.00854575966318</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0</v>
-      </c>
-      <c r="R33" t="n">
-        <v>0</v>
-      </c>
-      <c r="S33" t="n">
-        <v>119.3379681607525</v>
-      </c>
-      <c r="T33" t="n">
-        <v>0</v>
-      </c>
-      <c r="U33" t="n">
-        <v>0</v>
-      </c>
-      <c r="V33" t="n">
-        <v>0</v>
-      </c>
-      <c r="W33" t="n">
-        <v>0</v>
-      </c>
-      <c r="X33" t="n">
-        <v>0</v>
-      </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
     </row>
     <row r="34">
@@ -3189,10 +3189,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>33.94036506538239</v>
       </c>
       <c r="D34" t="n">
-        <v>33.94036506538236</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>107.3621491644615</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>121.891631658108</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="E35" t="n">
-        <v>121.891631658108</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3313,13 +3313,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>50.1031173608315</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>57.25903180362982</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>121.891631658108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3398,22 +3398,22 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>121.891631658108</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>121.891631658108</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="V36" t="n">
-        <v>107.3621491644611</v>
+        <v>107.3621491644614</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>121.891631658108</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>121.8916316581078</v>
       </c>
     </row>
     <row r="37">
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>33.94036506538227</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>33.94036506538236</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>107.3621491644614</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="T38" t="n">
         <v>121.8916316581079</v>
@@ -3562,13 +3562,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>121.8916316581079</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>121.8916316581079</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>107.3621491644614</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3584,16 +3584,16 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>111.161384142048</v>
       </c>
       <c r="F39" t="n">
-        <v>113.7150476394034</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>118.0923966805212</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>119.3379681607525</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>121.8916316581079</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>33.94036506538239</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>33.94036506538227</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>121.8916316581079</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>121.8916316581079</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>50.1031173608315</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>121.8916316581079</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="Y41" t="n">
-        <v>107.3621491644614</v>
+        <v>57.25903180362982</v>
       </c>
     </row>
     <row r="42">
@@ -3836,10 +3836,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>80.00854575966318</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>38.28796328765948</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,22 +3869,22 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>110.9572717752467</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>107.3621491644614</v>
       </c>
       <c r="V42" t="n">
-        <v>121.8916316581079</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="W42" t="n">
-        <v>121.8916316581079</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>33.94036506538239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>33.94036506538227</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3979,13 +3979,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>121.891631658108</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>57.25903180363001</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>57.2590318036299</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>50.10311736083148</v>
       </c>
       <c r="S44" t="n">
-        <v>121.891631658108</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="V44" t="n">
-        <v>121.891631658108</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4058,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>121.891631658108</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4067,10 +4067,10 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>118.0923966805212</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4106,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>119.3379681607525</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>113.7150476394035</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>121.891631658108</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>121.891631658108</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>107.3621491644611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4137,67 +4137,67 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>33.94036506538239</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11.78862123475806</v>
+        <v>296.8783580167961</v>
       </c>
       <c r="C11" t="n">
-        <v>11.78862123475806</v>
+        <v>200.4642381100684</v>
       </c>
       <c r="D11" t="n">
-        <v>11.78862123475806</v>
+        <v>200.4642381100684</v>
       </c>
       <c r="E11" t="n">
-        <v>11.78862123475806</v>
+        <v>104.0501182033406</v>
       </c>
       <c r="F11" t="n">
-        <v>11.78862123475806</v>
+        <v>104.0501182033406</v>
       </c>
       <c r="G11" t="n">
-        <v>11.78862123475806</v>
+        <v>7.635998296612838</v>
       </c>
       <c r="H11" t="n">
-        <v>11.78862123475806</v>
+        <v>7.635998296612838</v>
       </c>
       <c r="I11" t="n">
-        <v>11.78862123475806</v>
+        <v>7.635998296612838</v>
       </c>
       <c r="J11" t="n">
-        <v>7.635998296612842</v>
+        <v>7.635998296612838</v>
       </c>
       <c r="K11" t="n">
-        <v>34.51618156468948</v>
+        <v>34.51618156468959</v>
       </c>
       <c r="L11" t="n">
-        <v>91.84957102479549</v>
+        <v>91.84957102479558</v>
       </c>
       <c r="M11" t="n">
-        <v>176.2291480993064</v>
+        <v>176.2291480993065</v>
       </c>
       <c r="N11" t="n">
-        <v>264.973050393256</v>
+        <v>264.9730503932561</v>
       </c>
       <c r="O11" t="n">
-        <v>340.1034810377946</v>
+        <v>340.1034810377944</v>
       </c>
       <c r="P11" t="n">
-        <v>381.7999148306421</v>
+        <v>381.799914830642</v>
       </c>
       <c r="Q11" t="n">
-        <v>381.7999148306421</v>
+        <v>381.7999148306419</v>
       </c>
       <c r="R11" t="n">
-        <v>325.1566976157692</v>
+        <v>381.7999148306419</v>
       </c>
       <c r="S11" t="n">
-        <v>228.7425777090414</v>
+        <v>381.7999148306419</v>
       </c>
       <c r="T11" t="n">
-        <v>132.3284578023136</v>
+        <v>381.7999148306419</v>
       </c>
       <c r="U11" t="n">
-        <v>35.91433789558575</v>
+        <v>381.7999148306419</v>
       </c>
       <c r="V11" t="n">
-        <v>11.78862123475806</v>
+        <v>381.7999148306419</v>
       </c>
       <c r="W11" t="n">
-        <v>11.78862123475806</v>
+        <v>381.7999148306419</v>
       </c>
       <c r="X11" t="n">
-        <v>11.78862123475806</v>
+        <v>381.7999148306419</v>
       </c>
       <c r="Y11" t="n">
-        <v>11.78862123475806</v>
+        <v>381.7999148306419</v>
       </c>
     </row>
     <row r="12">
@@ -5096,31 +5096,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>381.7999148306421</v>
+        <v>92.55755511045862</v>
       </c>
       <c r="C12" t="n">
-        <v>296.8783580167963</v>
+        <v>92.55755511045862</v>
       </c>
       <c r="D12" t="n">
-        <v>200.4642381100684</v>
+        <v>92.55755511045862</v>
       </c>
       <c r="E12" t="n">
-        <v>104.0501182033406</v>
+        <v>92.55755511045862</v>
       </c>
       <c r="F12" t="n">
-        <v>7.635998296612842</v>
+        <v>92.55755511045862</v>
       </c>
       <c r="G12" t="n">
-        <v>7.635998296612842</v>
+        <v>92.55755511045862</v>
       </c>
       <c r="H12" t="n">
-        <v>7.635998296612842</v>
+        <v>11.24446894011358</v>
       </c>
       <c r="I12" t="n">
-        <v>7.635998296612842</v>
+        <v>11.24446894011358</v>
       </c>
       <c r="J12" t="n">
-        <v>7.635998296612842</v>
+        <v>7.635998296612838</v>
       </c>
       <c r="K12" t="n">
         <v>33.38778369300924</v>
@@ -5132,40 +5132,40 @@
         <v>186.2498345339104</v>
       </c>
       <c r="N12" t="n">
-        <v>255.3924507292105</v>
+        <v>255.7895811218215</v>
       </c>
       <c r="O12" t="n">
-        <v>332.2690383615345</v>
+        <v>332.6661687541456</v>
       </c>
       <c r="P12" t="n">
-        <v>381.4027844380308</v>
+        <v>381.7999148306419</v>
       </c>
       <c r="Q12" t="n">
-        <v>381.7999148306421</v>
+        <v>381.7999148306419</v>
       </c>
       <c r="R12" t="n">
-        <v>381.7999148306421</v>
+        <v>381.7999148306419</v>
       </c>
       <c r="S12" t="n">
-        <v>381.7999148306421</v>
+        <v>381.7999148306419</v>
       </c>
       <c r="T12" t="n">
-        <v>381.7999148306421</v>
+        <v>381.7999148306419</v>
       </c>
       <c r="U12" t="n">
-        <v>381.7999148306421</v>
+        <v>285.3857949239141</v>
       </c>
       <c r="V12" t="n">
-        <v>381.7999148306421</v>
+        <v>188.9716750171864</v>
       </c>
       <c r="W12" t="n">
-        <v>381.7999148306421</v>
+        <v>92.55755511045862</v>
       </c>
       <c r="X12" t="n">
-        <v>381.7999148306421</v>
+        <v>92.55755511045862</v>
       </c>
       <c r="Y12" t="n">
-        <v>381.7999148306421</v>
+        <v>92.55755511045862</v>
       </c>
     </row>
     <row r="13">
@@ -5184,28 +5184,28 @@
         <v>21.69573403832698</v>
       </c>
       <c r="E13" t="n">
-        <v>21.69573403832698</v>
+        <v>7.635998296612838</v>
       </c>
       <c r="F13" t="n">
-        <v>21.69573403832698</v>
+        <v>7.635998296612838</v>
       </c>
       <c r="G13" t="n">
-        <v>21.69573403832698</v>
+        <v>7.635998296612838</v>
       </c>
       <c r="H13" t="n">
-        <v>21.69573403832698</v>
+        <v>7.635998296612838</v>
       </c>
       <c r="I13" t="n">
-        <v>21.69573403832698</v>
+        <v>7.635998296612838</v>
       </c>
       <c r="J13" t="n">
-        <v>21.69573403832698</v>
+        <v>7.635998296612838</v>
       </c>
       <c r="K13" t="n">
-        <v>7.635998296612842</v>
+        <v>7.635998296612838</v>
       </c>
       <c r="L13" t="n">
-        <v>9.18187272303101</v>
+        <v>9.181872723031006</v>
       </c>
       <c r="M13" t="n">
         <v>12.92966451731667</v>
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>11.78862123475805</v>
+        <v>285.3857949239142</v>
       </c>
       <c r="C14" t="n">
-        <v>11.78862123475805</v>
+        <v>285.3857949239142</v>
       </c>
       <c r="D14" t="n">
-        <v>11.78862123475805</v>
+        <v>285.3857949239142</v>
       </c>
       <c r="E14" t="n">
-        <v>11.78862123475805</v>
+        <v>188.9716750171864</v>
       </c>
       <c r="F14" t="n">
-        <v>11.78862123475805</v>
+        <v>92.55755511045862</v>
       </c>
       <c r="G14" t="n">
-        <v>11.78862123475805</v>
+        <v>7.635998296612841</v>
       </c>
       <c r="H14" t="n">
-        <v>11.78862123475805</v>
+        <v>7.635998296612841</v>
       </c>
       <c r="I14" t="n">
-        <v>11.78862123475805</v>
+        <v>7.635998296612841</v>
       </c>
       <c r="J14" t="n">
-        <v>7.635998296612842</v>
+        <v>7.635998296612841</v>
       </c>
       <c r="K14" t="n">
-        <v>34.51618156468953</v>
+        <v>34.51618156468957</v>
       </c>
       <c r="L14" t="n">
-        <v>91.84957102479552</v>
+        <v>91.84957102479558</v>
       </c>
       <c r="M14" t="n">
-        <v>176.2291480993064</v>
+        <v>176.2291480993065</v>
       </c>
       <c r="N14" t="n">
         <v>264.9730503932562</v>
@@ -5296,34 +5296,34 @@
         <v>340.1034810377945</v>
       </c>
       <c r="P14" t="n">
-        <v>381.7999148306421</v>
+        <v>381.799914830642</v>
       </c>
       <c r="Q14" t="n">
-        <v>381.7999148306421</v>
+        <v>381.799914830642</v>
       </c>
       <c r="R14" t="n">
-        <v>381.7999148306421</v>
+        <v>381.799914830642</v>
       </c>
       <c r="S14" t="n">
-        <v>381.7999148306421</v>
+        <v>381.799914830642</v>
       </c>
       <c r="T14" t="n">
-        <v>381.7999148306421</v>
+        <v>381.799914830642</v>
       </c>
       <c r="U14" t="n">
-        <v>381.7999148306421</v>
+        <v>381.799914830642</v>
       </c>
       <c r="V14" t="n">
-        <v>285.3857949239143</v>
+        <v>285.3857949239142</v>
       </c>
       <c r="W14" t="n">
-        <v>188.9716750171864</v>
+        <v>285.3857949239142</v>
       </c>
       <c r="X14" t="n">
-        <v>92.55755511045864</v>
+        <v>285.3857949239142</v>
       </c>
       <c r="Y14" t="n">
-        <v>11.78862123475805</v>
+        <v>285.3857949239142</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>381.7999148306421</v>
+        <v>92.55755511045862</v>
       </c>
       <c r="C15" t="n">
-        <v>381.7999148306421</v>
+        <v>92.55755511045862</v>
       </c>
       <c r="D15" t="n">
-        <v>285.3857949239143</v>
+        <v>92.55755511045862</v>
       </c>
       <c r="E15" t="n">
-        <v>188.9716750171864</v>
+        <v>92.55755511045862</v>
       </c>
       <c r="F15" t="n">
-        <v>92.55755511045864</v>
+        <v>92.55755511045862</v>
       </c>
       <c r="G15" t="n">
-        <v>7.635998296612842</v>
+        <v>92.55755511045862</v>
       </c>
       <c r="H15" t="n">
-        <v>7.635998296612842</v>
+        <v>11.24446894011358</v>
       </c>
       <c r="I15" t="n">
-        <v>7.635998296612842</v>
+        <v>11.24446894011358</v>
       </c>
       <c r="J15" t="n">
-        <v>7.635998296612842</v>
+        <v>7.635998296612841</v>
       </c>
       <c r="K15" t="n">
         <v>33.38778369300925</v>
       </c>
       <c r="L15" t="n">
-        <v>98.12388887701825</v>
+        <v>98.12388887701822</v>
       </c>
       <c r="M15" t="n">
         <v>186.2498345339104</v>
       </c>
       <c r="N15" t="n">
-        <v>255.7895811218216</v>
+        <v>280.7453134544943</v>
       </c>
       <c r="O15" t="n">
-        <v>332.6661687541457</v>
+        <v>357.6219010868184</v>
       </c>
       <c r="P15" t="n">
-        <v>381.7999148306421</v>
+        <v>381.799914830642</v>
       </c>
       <c r="Q15" t="n">
-        <v>381.7999148306421</v>
+        <v>381.799914830642</v>
       </c>
       <c r="R15" t="n">
-        <v>381.7999148306421</v>
+        <v>381.799914830642</v>
       </c>
       <c r="S15" t="n">
-        <v>381.7999148306421</v>
+        <v>381.799914830642</v>
       </c>
       <c r="T15" t="n">
-        <v>381.7999148306421</v>
+        <v>285.3857949239142</v>
       </c>
       <c r="U15" t="n">
-        <v>381.7999148306421</v>
+        <v>188.9716750171864</v>
       </c>
       <c r="V15" t="n">
-        <v>381.7999148306421</v>
+        <v>188.9716750171864</v>
       </c>
       <c r="W15" t="n">
-        <v>381.7999148306421</v>
+        <v>92.55755511045862</v>
       </c>
       <c r="X15" t="n">
-        <v>381.7999148306421</v>
+        <v>92.55755511045862</v>
       </c>
       <c r="Y15" t="n">
-        <v>381.7999148306421</v>
+        <v>92.55755511045862</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7.635998296612842</v>
+        <v>21.695734038327</v>
       </c>
       <c r="C16" t="n">
-        <v>7.635998296612842</v>
+        <v>21.695734038327</v>
       </c>
       <c r="D16" t="n">
-        <v>7.635998296612842</v>
+        <v>21.695734038327</v>
       </c>
       <c r="E16" t="n">
-        <v>7.635998296612842</v>
+        <v>21.695734038327</v>
       </c>
       <c r="F16" t="n">
-        <v>7.635998296612842</v>
+        <v>7.635998296612841</v>
       </c>
       <c r="G16" t="n">
-        <v>7.635998296612842</v>
+        <v>7.635998296612841</v>
       </c>
       <c r="H16" t="n">
-        <v>7.635998296612842</v>
+        <v>7.635998296612841</v>
       </c>
       <c r="I16" t="n">
-        <v>7.635998296612842</v>
+        <v>7.635998296612841</v>
       </c>
       <c r="J16" t="n">
-        <v>7.635998296612842</v>
+        <v>7.635998296612841</v>
       </c>
       <c r="K16" t="n">
-        <v>7.635998296612842</v>
+        <v>7.635998296612841</v>
       </c>
       <c r="L16" t="n">
-        <v>9.181872723031036</v>
+        <v>9.181872723031022</v>
       </c>
       <c r="M16" t="n">
-        <v>12.92966451731671</v>
+        <v>12.9296645173167</v>
       </c>
       <c r="N16" t="n">
-        <v>21.69573403832703</v>
+        <v>21.695734038327</v>
       </c>
       <c r="O16" t="n">
-        <v>21.69573403832703</v>
+        <v>21.695734038327</v>
       </c>
       <c r="P16" t="n">
-        <v>21.69573403832703</v>
+        <v>21.695734038327</v>
       </c>
       <c r="Q16" t="n">
-        <v>21.69573403832703</v>
+        <v>21.695734038327</v>
       </c>
       <c r="R16" t="n">
-        <v>21.69573403832703</v>
+        <v>21.695734038327</v>
       </c>
       <c r="S16" t="n">
-        <v>21.69573403832703</v>
+        <v>21.695734038327</v>
       </c>
       <c r="T16" t="n">
-        <v>21.69573403832703</v>
+        <v>21.695734038327</v>
       </c>
       <c r="U16" t="n">
-        <v>21.69573403832703</v>
+        <v>21.695734038327</v>
       </c>
       <c r="V16" t="n">
-        <v>21.69573403832703</v>
+        <v>21.695734038327</v>
       </c>
       <c r="W16" t="n">
-        <v>7.635998296612842</v>
+        <v>21.695734038327</v>
       </c>
       <c r="X16" t="n">
-        <v>7.635998296612842</v>
+        <v>21.695734038327</v>
       </c>
       <c r="Y16" t="n">
-        <v>7.635998296612842</v>
+        <v>21.695734038327</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>9.751330532648636</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="C17" t="n">
-        <v>9.751330532648636</v>
+        <v>379.1199113147938</v>
       </c>
       <c r="D17" t="n">
-        <v>9.751330532648636</v>
+        <v>255.9970510540787</v>
       </c>
       <c r="E17" t="n">
-        <v>9.751330532648636</v>
+        <v>255.9970510540787</v>
       </c>
       <c r="F17" t="n">
-        <v>9.751330532648636</v>
+        <v>132.8741907933637</v>
       </c>
       <c r="G17" t="n">
-        <v>9.751330532648636</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="H17" t="n">
-        <v>9.751330532648636</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="I17" t="n">
-        <v>9.751330532648636</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="J17" t="n">
-        <v>13.67191254441036</v>
+        <v>13.67191254441013</v>
       </c>
       <c r="K17" t="n">
-        <v>52.52788553388319</v>
+        <v>52.52788553388308</v>
       </c>
       <c r="L17" t="n">
-        <v>124.718301115147</v>
+        <v>124.7183011151469</v>
       </c>
       <c r="M17" t="n">
-        <v>225.6291823919091</v>
+        <v>225.629182391909</v>
       </c>
       <c r="N17" t="n">
-        <v>331.1718826730488</v>
+        <v>331.1718826730487</v>
       </c>
       <c r="O17" t="n">
-        <v>422.1649418990629</v>
+        <v>422.1649418990627</v>
       </c>
       <c r="P17" t="n">
-        <v>477.3997621913173</v>
+        <v>477.3997621913171</v>
       </c>
       <c r="Q17" t="n">
-        <v>487.5665266324318</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="R17" t="n">
-        <v>487.5665266324318</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="S17" t="n">
-        <v>364.4436663717166</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="T17" t="n">
-        <v>241.3208061110015</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="U17" t="n">
-        <v>118.1979458502864</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="V17" t="n">
-        <v>118.1979458502864</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="W17" t="n">
-        <v>9.751330532648636</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="X17" t="n">
-        <v>9.751330532648636</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.751330532648636</v>
+        <v>487.5665266324316</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>487.5665266324318</v>
+        <v>241.3208061110014</v>
       </c>
       <c r="C18" t="n">
-        <v>487.5665266324318</v>
+        <v>241.3208061110014</v>
       </c>
       <c r="D18" t="n">
-        <v>487.5665266324318</v>
+        <v>241.3208061110014</v>
       </c>
       <c r="E18" t="n">
-        <v>381.7483316005071</v>
+        <v>132.8741907933637</v>
       </c>
       <c r="F18" t="n">
-        <v>258.6254713397919</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="G18" t="n">
-        <v>139.3402221675483</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="H18" t="n">
-        <v>58.52350927899959</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="I18" t="n">
-        <v>19.84879888742436</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="J18" t="n">
-        <v>9.751330532648636</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="K18" t="n">
-        <v>43.63722270065735</v>
+        <v>43.63722270065738</v>
       </c>
       <c r="L18" t="n">
-        <v>119.3106382502221</v>
+        <v>119.3106382502222</v>
       </c>
       <c r="M18" t="n">
-        <v>220.1999092241157</v>
+        <v>220.1999092241158</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1250381905289</v>
+        <v>333.125038190529</v>
       </c>
       <c r="O18" t="n">
         <v>421.9866026009624</v>
       </c>
       <c r="P18" t="n">
-        <v>480.7393491561087</v>
+        <v>480.7393491561089</v>
       </c>
       <c r="Q18" t="n">
-        <v>487.5665266324318</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="R18" t="n">
-        <v>487.5665266324318</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="S18" t="n">
-        <v>487.5665266324318</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="T18" t="n">
-        <v>487.5665266324318</v>
+        <v>364.4436663717165</v>
       </c>
       <c r="U18" t="n">
-        <v>487.5665266324318</v>
+        <v>241.3208061110014</v>
       </c>
       <c r="V18" t="n">
-        <v>487.5665266324318</v>
+        <v>241.3208061110014</v>
       </c>
       <c r="W18" t="n">
-        <v>487.5665266324318</v>
+        <v>241.3208061110014</v>
       </c>
       <c r="X18" t="n">
-        <v>487.5665266324318</v>
+        <v>241.3208061110014</v>
       </c>
       <c r="Y18" t="n">
-        <v>487.5665266324318</v>
+        <v>241.3208061110014</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>9.751330532648636</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="C19" t="n">
-        <v>9.751330532648636</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="D19" t="n">
-        <v>9.751330532648636</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="E19" t="n">
-        <v>9.751330532648636</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="F19" t="n">
-        <v>9.751330532648636</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="G19" t="n">
-        <v>9.751330532648636</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="H19" t="n">
-        <v>9.751330532648636</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="I19" t="n">
-        <v>9.751330532648636</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="J19" t="n">
-        <v>9.751330532648636</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="K19" t="n">
-        <v>9.751330532648636</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="L19" t="n">
-        <v>17.57578586549613</v>
+        <v>17.57578586549614</v>
       </c>
       <c r="M19" t="n">
-        <v>27.94346090360964</v>
+        <v>27.94346090360967</v>
       </c>
       <c r="N19" t="n">
-        <v>43.17200764107614</v>
+        <v>43.17200764107618</v>
       </c>
       <c r="O19" t="n">
-        <v>44.03452756838837</v>
+        <v>44.03452756838843</v>
       </c>
       <c r="P19" t="n">
-        <v>44.03452756838837</v>
+        <v>44.03452756838843</v>
       </c>
       <c r="Q19" t="n">
-        <v>44.03452756838837</v>
+        <v>44.03452756838843</v>
       </c>
       <c r="R19" t="n">
-        <v>44.03452756838837</v>
+        <v>44.03452756838843</v>
       </c>
       <c r="S19" t="n">
-        <v>44.03452756838837</v>
+        <v>44.03452756838843</v>
       </c>
       <c r="T19" t="n">
-        <v>44.03452756838837</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="U19" t="n">
-        <v>9.751330532648636</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="V19" t="n">
-        <v>9.751330532648636</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="W19" t="n">
-        <v>9.751330532648636</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="X19" t="n">
-        <v>9.751330532648636</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.751330532648636</v>
+        <v>9.751330532648632</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>9.751330532648641</v>
+        <v>241.3208061110015</v>
       </c>
       <c r="C20" t="n">
-        <v>9.751330532648641</v>
+        <v>241.3208061110015</v>
       </c>
       <c r="D20" t="n">
-        <v>9.751330532648641</v>
+        <v>241.3208061110015</v>
       </c>
       <c r="E20" t="n">
-        <v>9.751330532648641</v>
+        <v>118.1979458502864</v>
       </c>
       <c r="F20" t="n">
-        <v>9.751330532648641</v>
+        <v>9.751330532648636</v>
       </c>
       <c r="G20" t="n">
-        <v>9.751330532648641</v>
+        <v>9.751330532648636</v>
       </c>
       <c r="H20" t="n">
-        <v>9.751330532648641</v>
+        <v>9.751330532648636</v>
       </c>
       <c r="I20" t="n">
-        <v>9.751330532648641</v>
+        <v>9.751330532648636</v>
       </c>
       <c r="J20" t="n">
-        <v>13.67191254441022</v>
+        <v>13.67191254441021</v>
       </c>
       <c r="K20" t="n">
         <v>52.52788553388314</v>
       </c>
       <c r="L20" t="n">
-        <v>124.7183011151472</v>
+        <v>124.718301115147</v>
       </c>
       <c r="M20" t="n">
-        <v>225.6291823919094</v>
+        <v>225.6291823919091</v>
       </c>
       <c r="N20" t="n">
-        <v>331.1718826730493</v>
+        <v>331.1718826730489</v>
       </c>
       <c r="O20" t="n">
-        <v>422.1649418990633</v>
+        <v>422.1649418990629</v>
       </c>
       <c r="P20" t="n">
-        <v>477.3997621913176</v>
+        <v>477.3997621913172</v>
       </c>
       <c r="Q20" t="n">
-        <v>487.566526632432</v>
+        <v>487.5665266324318</v>
       </c>
       <c r="R20" t="n">
-        <v>436.9573171770467</v>
+        <v>487.5665266324318</v>
       </c>
       <c r="S20" t="n">
-        <v>436.9573171770467</v>
+        <v>487.5665266324318</v>
       </c>
       <c r="T20" t="n">
-        <v>436.9573171770467</v>
+        <v>487.5665266324318</v>
       </c>
       <c r="U20" t="n">
-        <v>436.9573171770467</v>
+        <v>487.5665266324318</v>
       </c>
       <c r="V20" t="n">
-        <v>436.9573171770467</v>
+        <v>487.5665266324318</v>
       </c>
       <c r="W20" t="n">
-        <v>313.8344569163315</v>
+        <v>487.5665266324318</v>
       </c>
       <c r="X20" t="n">
-        <v>190.7115966556163</v>
+        <v>487.5665266324318</v>
       </c>
       <c r="Y20" t="n">
-        <v>67.58873639490118</v>
+        <v>364.4436663717166</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>367.0231244498538</v>
+        <v>9.751330532648636</v>
       </c>
       <c r="C21" t="n">
-        <v>367.0231244498538</v>
+        <v>9.751330532648636</v>
       </c>
       <c r="D21" t="n">
-        <v>243.9002641891386</v>
+        <v>9.751330532648636</v>
       </c>
       <c r="E21" t="n">
-        <v>120.7774039284234</v>
+        <v>9.751330532648636</v>
       </c>
       <c r="F21" t="n">
-        <v>120.7774039284234</v>
+        <v>9.751330532648636</v>
       </c>
       <c r="G21" t="n">
-        <v>120.7774039284234</v>
+        <v>9.751330532648636</v>
       </c>
       <c r="H21" t="n">
-        <v>39.96069103987473</v>
+        <v>9.751330532648636</v>
       </c>
       <c r="I21" t="n">
-        <v>9.751330532648641</v>
+        <v>9.751330532648636</v>
       </c>
       <c r="J21" t="n">
-        <v>9.751330532648641</v>
+        <v>9.751330532648636</v>
       </c>
       <c r="K21" t="n">
-        <v>43.63722270065739</v>
+        <v>43.63722270065738</v>
       </c>
       <c r="L21" t="n">
         <v>119.3106382502222</v>
       </c>
       <c r="M21" t="n">
-        <v>220.1999092241159</v>
+        <v>220.1999092241158</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1250381905292</v>
+        <v>333.125038190529</v>
       </c>
       <c r="O21" t="n">
-        <v>421.9866026009627</v>
+        <v>421.9866026009626</v>
       </c>
       <c r="P21" t="n">
-        <v>480.7393491561093</v>
+        <v>480.739349156109</v>
       </c>
       <c r="Q21" t="n">
-        <v>487.566526632432</v>
+        <v>487.5665266324318</v>
       </c>
       <c r="R21" t="n">
-        <v>487.566526632432</v>
+        <v>440.0095749571781</v>
       </c>
       <c r="S21" t="n">
-        <v>367.0231244498538</v>
+        <v>440.0095749571781</v>
       </c>
       <c r="T21" t="n">
-        <v>367.0231244498538</v>
+        <v>316.8867146964631</v>
       </c>
       <c r="U21" t="n">
-        <v>367.0231244498538</v>
+        <v>316.8867146964631</v>
       </c>
       <c r="V21" t="n">
-        <v>367.0231244498538</v>
+        <v>316.8867146964631</v>
       </c>
       <c r="W21" t="n">
-        <v>367.0231244498538</v>
+        <v>193.763854435748</v>
       </c>
       <c r="X21" t="n">
-        <v>367.0231244498538</v>
+        <v>132.8741907933637</v>
       </c>
       <c r="Y21" t="n">
-        <v>367.0231244498538</v>
+        <v>9.751330532648636</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>453.2833295966922</v>
+        <v>9.751330532648636</v>
       </c>
       <c r="C22" t="n">
-        <v>453.2833295966922</v>
+        <v>9.751330532648636</v>
       </c>
       <c r="D22" t="n">
-        <v>453.2833295966922</v>
+        <v>9.751330532648636</v>
       </c>
       <c r="E22" t="n">
-        <v>453.2833295966922</v>
+        <v>9.751330532648636</v>
       </c>
       <c r="F22" t="n">
-        <v>453.2833295966922</v>
+        <v>9.751330532648636</v>
       </c>
       <c r="G22" t="n">
-        <v>453.2833295966922</v>
+        <v>9.751330532648636</v>
       </c>
       <c r="H22" t="n">
-        <v>453.2833295966922</v>
+        <v>9.751330532648636</v>
       </c>
       <c r="I22" t="n">
-        <v>453.2833295966922</v>
+        <v>9.751330532648636</v>
       </c>
       <c r="J22" t="n">
-        <v>453.2833295966922</v>
+        <v>9.751330532648636</v>
       </c>
       <c r="K22" t="n">
-        <v>453.2833295966922</v>
+        <v>9.751330532648636</v>
       </c>
       <c r="L22" t="n">
-        <v>461.1077849295397</v>
+        <v>17.57578586549614</v>
       </c>
       <c r="M22" t="n">
-        <v>471.4754599676533</v>
+        <v>27.94346090360967</v>
       </c>
       <c r="N22" t="n">
-        <v>486.7040067051198</v>
+        <v>43.17200764107618</v>
       </c>
       <c r="O22" t="n">
-        <v>487.566526632432</v>
+        <v>44.03452756838843</v>
       </c>
       <c r="P22" t="n">
-        <v>487.566526632432</v>
+        <v>44.03452756838843</v>
       </c>
       <c r="Q22" t="n">
-        <v>487.566526632432</v>
+        <v>44.03452756838843</v>
       </c>
       <c r="R22" t="n">
-        <v>487.566526632432</v>
+        <v>44.03452756838843</v>
       </c>
       <c r="S22" t="n">
-        <v>487.566526632432</v>
+        <v>44.03452756838843</v>
       </c>
       <c r="T22" t="n">
-        <v>453.2833295966922</v>
+        <v>9.751330532648636</v>
       </c>
       <c r="U22" t="n">
-        <v>453.2833295966922</v>
+        <v>9.751330532648636</v>
       </c>
       <c r="V22" t="n">
-        <v>453.2833295966922</v>
+        <v>9.751330532648636</v>
       </c>
       <c r="W22" t="n">
-        <v>453.2833295966922</v>
+        <v>9.751330532648636</v>
       </c>
       <c r="X22" t="n">
-        <v>453.2833295966922</v>
+        <v>9.751330532648636</v>
       </c>
       <c r="Y22" t="n">
-        <v>453.2833295966922</v>
+        <v>9.751330532648636</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>461.6459453003292</v>
+        <v>67.5887363949011</v>
       </c>
       <c r="C23" t="n">
-        <v>338.523085039614</v>
+        <v>67.5887363949011</v>
       </c>
       <c r="D23" t="n">
-        <v>215.4002247788987</v>
+        <v>67.5887363949011</v>
       </c>
       <c r="E23" t="n">
-        <v>92.27736451818353</v>
+        <v>67.5887363949011</v>
       </c>
       <c r="F23" t="n">
-        <v>92.27736451818353</v>
+        <v>67.5887363949011</v>
       </c>
       <c r="G23" t="n">
-        <v>92.27736451818353</v>
+        <v>9.751330532648636</v>
       </c>
       <c r="H23" t="n">
-        <v>92.27736451818353</v>
+        <v>9.751330532648636</v>
       </c>
       <c r="I23" t="n">
-        <v>9.751330532648646</v>
+        <v>9.751330532648636</v>
       </c>
       <c r="J23" t="n">
-        <v>13.67191254441042</v>
+        <v>13.67191254441019</v>
       </c>
       <c r="K23" t="n">
-        <v>52.52788553388319</v>
+        <v>52.52788553388314</v>
       </c>
       <c r="L23" t="n">
-        <v>124.7183011151471</v>
+        <v>124.718301115147</v>
       </c>
       <c r="M23" t="n">
-        <v>225.6291823919092</v>
+        <v>225.6291823919091</v>
       </c>
       <c r="N23" t="n">
-        <v>331.171882673049</v>
+        <v>331.1718826730488</v>
       </c>
       <c r="O23" t="n">
-        <v>422.1649418990631</v>
+        <v>422.1649418990628</v>
       </c>
       <c r="P23" t="n">
-        <v>477.3997621913175</v>
+        <v>477.3997621913172</v>
       </c>
       <c r="Q23" t="n">
-        <v>487.5665266324323</v>
+        <v>487.5665266324318</v>
       </c>
       <c r="R23" t="n">
-        <v>487.5665266324323</v>
+        <v>436.9573171770464</v>
       </c>
       <c r="S23" t="n">
-        <v>487.5665266324323</v>
+        <v>436.9573171770464</v>
       </c>
       <c r="T23" t="n">
-        <v>487.5665266324323</v>
+        <v>436.9573171770464</v>
       </c>
       <c r="U23" t="n">
-        <v>487.5665266324323</v>
+        <v>313.8344569163313</v>
       </c>
       <c r="V23" t="n">
-        <v>487.5665266324323</v>
+        <v>313.8344569163313</v>
       </c>
       <c r="W23" t="n">
-        <v>487.5665266324323</v>
+        <v>313.8344569163313</v>
       </c>
       <c r="X23" t="n">
-        <v>487.5665266324323</v>
+        <v>313.8344569163313</v>
       </c>
       <c r="Y23" t="n">
-        <v>487.5665266324323</v>
+        <v>190.7115966556162</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>364.443666371717</v>
+        <v>440.0095749571781</v>
       </c>
       <c r="C24" t="n">
-        <v>241.3208061110018</v>
+        <v>440.0095749571781</v>
       </c>
       <c r="D24" t="n">
-        <v>241.3208061110018</v>
+        <v>332.9761528541561</v>
       </c>
       <c r="E24" t="n">
-        <v>241.3208061110018</v>
+        <v>332.9761528541561</v>
       </c>
       <c r="F24" t="n">
-        <v>118.1979458502866</v>
+        <v>209.853292593441</v>
       </c>
       <c r="G24" t="n">
-        <v>90.56804342119732</v>
+        <v>90.5680434211973</v>
       </c>
       <c r="H24" t="n">
-        <v>9.751330532648646</v>
+        <v>9.751330532648636</v>
       </c>
       <c r="I24" t="n">
-        <v>9.751330532648646</v>
+        <v>9.751330532648636</v>
       </c>
       <c r="J24" t="n">
-        <v>9.751330532648646</v>
+        <v>9.751330532648636</v>
       </c>
       <c r="K24" t="n">
-        <v>43.6372227006574</v>
+        <v>43.63722270065738</v>
       </c>
       <c r="L24" t="n">
         <v>119.3106382502222</v>
       </c>
       <c r="M24" t="n">
-        <v>220.1999092241159</v>
+        <v>220.1999092241158</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1250381905292</v>
+        <v>333.125038190529</v>
       </c>
       <c r="O24" t="n">
-        <v>421.9866026009627</v>
+        <v>421.9866026009626</v>
       </c>
       <c r="P24" t="n">
-        <v>480.7393491561091</v>
+        <v>480.739349156109</v>
       </c>
       <c r="Q24" t="n">
-        <v>487.5665266324323</v>
+        <v>487.5665266324318</v>
       </c>
       <c r="R24" t="n">
-        <v>487.5665266324323</v>
+        <v>440.0095749571781</v>
       </c>
       <c r="S24" t="n">
-        <v>487.5665266324323</v>
+        <v>440.0095749571781</v>
       </c>
       <c r="T24" t="n">
-        <v>487.5665266324323</v>
+        <v>440.0095749571781</v>
       </c>
       <c r="U24" t="n">
-        <v>487.5665266324323</v>
+        <v>440.0095749571781</v>
       </c>
       <c r="V24" t="n">
-        <v>487.5665266324323</v>
+        <v>440.0095749571781</v>
       </c>
       <c r="W24" t="n">
-        <v>487.5665266324323</v>
+        <v>440.0095749571781</v>
       </c>
       <c r="X24" t="n">
-        <v>487.5665266324323</v>
+        <v>440.0095749571781</v>
       </c>
       <c r="Y24" t="n">
-        <v>364.443666371717</v>
+        <v>440.0095749571781</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>9.751330532648646</v>
+        <v>9.751330532648636</v>
       </c>
       <c r="C25" t="n">
-        <v>9.751330532648646</v>
+        <v>9.751330532648636</v>
       </c>
       <c r="D25" t="n">
-        <v>9.751330532648646</v>
+        <v>9.751330532648636</v>
       </c>
       <c r="E25" t="n">
-        <v>9.751330532648646</v>
+        <v>9.751330532648636</v>
       </c>
       <c r="F25" t="n">
-        <v>9.751330532648646</v>
+        <v>9.751330532648636</v>
       </c>
       <c r="G25" t="n">
-        <v>9.751330532648646</v>
+        <v>9.751330532648636</v>
       </c>
       <c r="H25" t="n">
-        <v>9.751330532648646</v>
+        <v>9.751330532648636</v>
       </c>
       <c r="I25" t="n">
-        <v>9.751330532648646</v>
+        <v>9.751330532648636</v>
       </c>
       <c r="J25" t="n">
-        <v>9.751330532648646</v>
+        <v>9.751330532648636</v>
       </c>
       <c r="K25" t="n">
-        <v>9.751330532648646</v>
+        <v>9.751330532648636</v>
       </c>
       <c r="L25" t="n">
-        <v>17.57578586549617</v>
+        <v>17.57578586549614</v>
       </c>
       <c r="M25" t="n">
-        <v>27.94346090360971</v>
+        <v>27.94346090360967</v>
       </c>
       <c r="N25" t="n">
-        <v>43.17200764107623</v>
+        <v>43.17200764107618</v>
       </c>
       <c r="O25" t="n">
-        <v>44.03452756838849</v>
+        <v>44.03452756838843</v>
       </c>
       <c r="P25" t="n">
-        <v>44.03452756838849</v>
+        <v>44.03452756838843</v>
       </c>
       <c r="Q25" t="n">
-        <v>44.03452756838849</v>
+        <v>44.03452756838843</v>
       </c>
       <c r="R25" t="n">
-        <v>44.03452756838849</v>
+        <v>44.03452756838843</v>
       </c>
       <c r="S25" t="n">
-        <v>44.03452756838849</v>
+        <v>44.03452756838843</v>
       </c>
       <c r="T25" t="n">
-        <v>44.03452756838849</v>
+        <v>9.751330532648636</v>
       </c>
       <c r="U25" t="n">
-        <v>44.03452756838849</v>
+        <v>9.751330532648636</v>
       </c>
       <c r="V25" t="n">
-        <v>44.03452756838849</v>
+        <v>9.751330532648636</v>
       </c>
       <c r="W25" t="n">
-        <v>44.03452756838849</v>
+        <v>9.751330532648636</v>
       </c>
       <c r="X25" t="n">
-        <v>9.751330532648646</v>
+        <v>9.751330532648636</v>
       </c>
       <c r="Y25" t="n">
-        <v>9.751330532648646</v>
+        <v>9.751330532648636</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>132.8741907933639</v>
+        <v>67.58873639490106</v>
       </c>
       <c r="C26" t="n">
-        <v>132.8741907933639</v>
+        <v>67.58873639490106</v>
       </c>
       <c r="D26" t="n">
-        <v>132.8741907933639</v>
+        <v>67.58873639490106</v>
       </c>
       <c r="E26" t="n">
-        <v>132.8741907933639</v>
+        <v>67.58873639490106</v>
       </c>
       <c r="F26" t="n">
-        <v>132.8741907933639</v>
+        <v>67.58873639490106</v>
       </c>
       <c r="G26" t="n">
-        <v>9.751330532648645</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="H26" t="n">
-        <v>9.751330532648645</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="I26" t="n">
-        <v>9.751330532648645</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="J26" t="n">
-        <v>13.67191254441025</v>
+        <v>13.67191254441013</v>
       </c>
       <c r="K26" t="n">
-        <v>52.52788553388336</v>
+        <v>52.52788553388308</v>
       </c>
       <c r="L26" t="n">
-        <v>124.7183011151472</v>
+        <v>124.7183011151469</v>
       </c>
       <c r="M26" t="n">
-        <v>225.6291823919094</v>
+        <v>225.629182391909</v>
       </c>
       <c r="N26" t="n">
-        <v>331.1718826730492</v>
+        <v>331.1718826730487</v>
       </c>
       <c r="O26" t="n">
-        <v>422.1649418990633</v>
+        <v>422.1649418990627</v>
       </c>
       <c r="P26" t="n">
-        <v>477.3997621913177</v>
+        <v>477.3997621913171</v>
       </c>
       <c r="Q26" t="n">
-        <v>487.5665266324322</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="R26" t="n">
-        <v>487.5665266324322</v>
+        <v>436.9573171770463</v>
       </c>
       <c r="S26" t="n">
-        <v>487.5665266324322</v>
+        <v>436.9573171770463</v>
       </c>
       <c r="T26" t="n">
-        <v>364.443666371717</v>
+        <v>436.9573171770463</v>
       </c>
       <c r="U26" t="n">
-        <v>364.443666371717</v>
+        <v>313.8344569163312</v>
       </c>
       <c r="V26" t="n">
-        <v>364.443666371717</v>
+        <v>190.7115966556161</v>
       </c>
       <c r="W26" t="n">
-        <v>241.3208061110018</v>
+        <v>67.58873639490106</v>
       </c>
       <c r="X26" t="n">
-        <v>132.8741907933639</v>
+        <v>67.58873639490106</v>
       </c>
       <c r="Y26" t="n">
-        <v>132.8741907933639</v>
+        <v>67.58873639490106</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>332.9761528541562</v>
+        <v>375.2823002263224</v>
       </c>
       <c r="C27" t="n">
-        <v>332.9761528541562</v>
+        <v>375.2823002263224</v>
       </c>
       <c r="D27" t="n">
-        <v>332.9761528541562</v>
+        <v>252.1594399656074</v>
       </c>
       <c r="E27" t="n">
-        <v>332.9761528541562</v>
+        <v>252.1594399656074</v>
       </c>
       <c r="F27" t="n">
-        <v>209.853292593441</v>
+        <v>129.0365797048923</v>
       </c>
       <c r="G27" t="n">
-        <v>90.5680434211973</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="H27" t="n">
-        <v>9.751330532648645</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="I27" t="n">
-        <v>9.751330532648645</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="J27" t="n">
-        <v>9.751330532648645</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="K27" t="n">
-        <v>43.63722270065772</v>
+        <v>43.63722270065738</v>
       </c>
       <c r="L27" t="n">
-        <v>119.3106382502225</v>
+        <v>119.3106382502222</v>
       </c>
       <c r="M27" t="n">
-        <v>220.1999092241162</v>
+        <v>220.1999092241158</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1250381905295</v>
+        <v>333.125038190529</v>
       </c>
       <c r="O27" t="n">
-        <v>421.986602600963</v>
+        <v>421.9866026009626</v>
       </c>
       <c r="P27" t="n">
-        <v>480.7393491561094</v>
+        <v>480.7393491561089</v>
       </c>
       <c r="Q27" t="n">
-        <v>487.5665266324322</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="R27" t="n">
-        <v>487.5665266324322</v>
+        <v>440.009574957178</v>
       </c>
       <c r="S27" t="n">
-        <v>367.0231244498539</v>
+        <v>440.009574957178</v>
       </c>
       <c r="T27" t="n">
-        <v>367.0231244498539</v>
+        <v>440.009574957178</v>
       </c>
       <c r="U27" t="n">
-        <v>367.0231244498539</v>
+        <v>375.2823002263224</v>
       </c>
       <c r="V27" t="n">
-        <v>367.0231244498539</v>
+        <v>375.2823002263224</v>
       </c>
       <c r="W27" t="n">
-        <v>332.9761528541562</v>
+        <v>375.2823002263224</v>
       </c>
       <c r="X27" t="n">
-        <v>332.9761528541562</v>
+        <v>375.2823002263224</v>
       </c>
       <c r="Y27" t="n">
-        <v>332.9761528541562</v>
+        <v>375.2823002263224</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>9.751330532648645</v>
+        <v>44.03452756838843</v>
       </c>
       <c r="C28" t="n">
-        <v>9.751330532648645</v>
+        <v>44.03452756838843</v>
       </c>
       <c r="D28" t="n">
-        <v>9.751330532648645</v>
+        <v>44.03452756838843</v>
       </c>
       <c r="E28" t="n">
-        <v>9.751330532648645</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="F28" t="n">
-        <v>9.751330532648645</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="G28" t="n">
-        <v>9.751330532648645</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="H28" t="n">
-        <v>9.751330532648645</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="I28" t="n">
-        <v>9.751330532648645</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="J28" t="n">
-        <v>9.751330532648645</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="K28" t="n">
-        <v>9.751330532648645</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="L28" t="n">
-        <v>17.57578586549616</v>
+        <v>17.57578586549614</v>
       </c>
       <c r="M28" t="n">
-        <v>27.9434609036097</v>
+        <v>27.94346090360967</v>
       </c>
       <c r="N28" t="n">
-        <v>43.17200764107623</v>
+        <v>43.17200764107618</v>
       </c>
       <c r="O28" t="n">
-        <v>44.03452756838849</v>
+        <v>44.03452756838843</v>
       </c>
       <c r="P28" t="n">
-        <v>32.14569333241781</v>
+        <v>44.03452756838843</v>
       </c>
       <c r="Q28" t="n">
-        <v>32.14569333241781</v>
+        <v>44.03452756838843</v>
       </c>
       <c r="R28" t="n">
-        <v>32.14569333241781</v>
+        <v>44.03452756838843</v>
       </c>
       <c r="S28" t="n">
-        <v>32.14569333241781</v>
+        <v>44.03452756838843</v>
       </c>
       <c r="T28" t="n">
-        <v>9.751330532648645</v>
+        <v>44.03452756838843</v>
       </c>
       <c r="U28" t="n">
-        <v>9.751330532648645</v>
+        <v>44.03452756838843</v>
       </c>
       <c r="V28" t="n">
-        <v>9.751330532648645</v>
+        <v>44.03452756838843</v>
       </c>
       <c r="W28" t="n">
-        <v>9.751330532648645</v>
+        <v>44.03452756838843</v>
       </c>
       <c r="X28" t="n">
-        <v>9.751330532648645</v>
+        <v>44.03452756838843</v>
       </c>
       <c r="Y28" t="n">
-        <v>9.751330532648645</v>
+        <v>44.03452756838843</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>364.4436663717169</v>
+        <v>364.4436663717165</v>
       </c>
       <c r="C29" t="n">
-        <v>364.4436663717169</v>
+        <v>364.4436663717165</v>
       </c>
       <c r="D29" t="n">
-        <v>364.4436663717169</v>
+        <v>364.4436663717165</v>
       </c>
       <c r="E29" t="n">
-        <v>241.3208061110017</v>
+        <v>364.4436663717165</v>
       </c>
       <c r="F29" t="n">
-        <v>118.1979458502865</v>
+        <v>241.3208061110014</v>
       </c>
       <c r="G29" t="n">
-        <v>9.751330532648643</v>
+        <v>118.1979458502864</v>
       </c>
       <c r="H29" t="n">
-        <v>9.751330532648643</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="I29" t="n">
-        <v>9.751330532648643</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="J29" t="n">
-        <v>13.67191254441059</v>
+        <v>13.67191254441017</v>
       </c>
       <c r="K29" t="n">
-        <v>52.52788553388336</v>
+        <v>52.52788553388306</v>
       </c>
       <c r="L29" t="n">
-        <v>124.7183011151472</v>
+        <v>124.7183011151468</v>
       </c>
       <c r="M29" t="n">
-        <v>225.6291823919093</v>
+        <v>225.6291823919089</v>
       </c>
       <c r="N29" t="n">
-        <v>331.1718826730492</v>
+        <v>331.1718826730487</v>
       </c>
       <c r="O29" t="n">
-        <v>422.1649418990632</v>
+        <v>422.1649418990627</v>
       </c>
       <c r="P29" t="n">
-        <v>477.3997621913176</v>
+        <v>477.3997621913171</v>
       </c>
       <c r="Q29" t="n">
-        <v>487.5665266324321</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="R29" t="n">
-        <v>487.5665266324321</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="S29" t="n">
-        <v>487.5665266324321</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="T29" t="n">
-        <v>364.4436663717169</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="U29" t="n">
-        <v>364.4436663717169</v>
+        <v>364.4436663717165</v>
       </c>
       <c r="V29" t="n">
-        <v>364.4436663717169</v>
+        <v>364.4436663717165</v>
       </c>
       <c r="W29" t="n">
-        <v>364.4436663717169</v>
+        <v>364.4436663717165</v>
       </c>
       <c r="X29" t="n">
-        <v>364.4436663717169</v>
+        <v>364.4436663717165</v>
       </c>
       <c r="Y29" t="n">
-        <v>364.4436663717169</v>
+        <v>364.4436663717165</v>
       </c>
     </row>
     <row r="30">
@@ -6518,43 +6518,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>9.751330532648643</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="C30" t="n">
-        <v>9.751330532648643</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="D30" t="n">
-        <v>9.751330532648643</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="E30" t="n">
-        <v>9.751330532648643</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="F30" t="n">
-        <v>9.751330532648643</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="G30" t="n">
-        <v>9.751330532648643</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="H30" t="n">
-        <v>9.751330532648643</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="I30" t="n">
-        <v>9.751330532648643</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="J30" t="n">
-        <v>9.751330532648643</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="K30" t="n">
-        <v>43.63722270065738</v>
+        <v>43.63722270065737</v>
       </c>
       <c r="L30" t="n">
         <v>119.3106382502222</v>
       </c>
       <c r="M30" t="n">
-        <v>220.1999092241159</v>
+        <v>220.1999092241158</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1250381905291</v>
+        <v>333.125038190529</v>
       </c>
       <c r="O30" t="n">
         <v>421.9866026009626</v>
@@ -6566,28 +6566,28 @@
         <v>487.5665266324317</v>
       </c>
       <c r="R30" t="n">
-        <v>487.5665266324317</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="S30" t="n">
-        <v>487.5665266324317</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="T30" t="n">
+        <v>487.5665266324316</v>
+      </c>
+      <c r="U30" t="n">
         <v>364.4436663717165</v>
       </c>
-      <c r="U30" t="n">
-        <v>241.3208061110013</v>
-      </c>
       <c r="V30" t="n">
-        <v>118.1979458502861</v>
+        <v>241.3208061110014</v>
       </c>
       <c r="W30" t="n">
-        <v>9.751330532648643</v>
+        <v>118.1979458502864</v>
       </c>
       <c r="X30" t="n">
-        <v>9.751330532648643</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.751330532648643</v>
+        <v>9.751330532648632</v>
       </c>
     </row>
     <row r="31">
@@ -6597,43 +6597,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>9.751330532648643</v>
+        <v>44.03452756838843</v>
       </c>
       <c r="C31" t="n">
-        <v>9.751330532648643</v>
+        <v>44.03452756838843</v>
       </c>
       <c r="D31" t="n">
-        <v>9.751330532648643</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="E31" t="n">
-        <v>9.751330532648643</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="F31" t="n">
-        <v>9.751330532648643</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="G31" t="n">
-        <v>9.751330532648643</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="H31" t="n">
-        <v>9.751330532648643</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="I31" t="n">
-        <v>9.751330532648643</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="J31" t="n">
-        <v>9.751330532648643</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="K31" t="n">
-        <v>9.751330532648643</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="L31" t="n">
-        <v>17.57578586549615</v>
+        <v>17.57578586549614</v>
       </c>
       <c r="M31" t="n">
-        <v>27.94346090360968</v>
+        <v>27.94346090360967</v>
       </c>
       <c r="N31" t="n">
-        <v>43.17200764107619</v>
+        <v>43.17200764107618</v>
       </c>
       <c r="O31" t="n">
         <v>44.03452756838843</v>
@@ -6642,31 +6642,31 @@
         <v>44.03452756838843</v>
       </c>
       <c r="Q31" t="n">
-        <v>9.751330532648643</v>
+        <v>44.03452756838843</v>
       </c>
       <c r="R31" t="n">
-        <v>9.751330532648643</v>
+        <v>44.03452756838843</v>
       </c>
       <c r="S31" t="n">
-        <v>9.751330532648643</v>
+        <v>44.03452756838843</v>
       </c>
       <c r="T31" t="n">
-        <v>9.751330532648643</v>
+        <v>44.03452756838843</v>
       </c>
       <c r="U31" t="n">
-        <v>9.751330532648643</v>
+        <v>44.03452756838843</v>
       </c>
       <c r="V31" t="n">
-        <v>9.751330532648643</v>
+        <v>44.03452756838843</v>
       </c>
       <c r="W31" t="n">
-        <v>9.751330532648643</v>
+        <v>44.03452756838843</v>
       </c>
       <c r="X31" t="n">
-        <v>9.751330532648643</v>
+        <v>44.03452756838843</v>
       </c>
       <c r="Y31" t="n">
-        <v>9.751330532648643</v>
+        <v>44.03452756838843</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>9.751330532648636</v>
+        <v>190.7115966556161</v>
       </c>
       <c r="C32" t="n">
-        <v>9.751330532648636</v>
+        <v>190.7115966556161</v>
       </c>
       <c r="D32" t="n">
-        <v>9.751330532648636</v>
+        <v>190.7115966556161</v>
       </c>
       <c r="E32" t="n">
-        <v>9.751330532648636</v>
+        <v>190.7115966556161</v>
       </c>
       <c r="F32" t="n">
-        <v>9.751330532648636</v>
+        <v>67.58873639490106</v>
       </c>
       <c r="G32" t="n">
-        <v>9.751330532648636</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="H32" t="n">
-        <v>9.751330532648636</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="I32" t="n">
-        <v>9.751330532648636</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="J32" t="n">
-        <v>13.67191254441022</v>
+        <v>13.67191254441017</v>
       </c>
       <c r="K32" t="n">
-        <v>52.52788553388311</v>
+        <v>52.52788553388306</v>
       </c>
       <c r="L32" t="n">
-        <v>124.718301115147</v>
+        <v>124.7183011151468</v>
       </c>
       <c r="M32" t="n">
-        <v>225.6291823919091</v>
+        <v>225.6291823919089</v>
       </c>
       <c r="N32" t="n">
-        <v>331.1718826730489</v>
+        <v>331.1718826730487</v>
       </c>
       <c r="O32" t="n">
-        <v>422.1649418990629</v>
+        <v>422.1649418990627</v>
       </c>
       <c r="P32" t="n">
-        <v>477.3997621913173</v>
+        <v>477.3997621913171</v>
       </c>
       <c r="Q32" t="n">
-        <v>487.5665266324318</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="R32" t="n">
-        <v>487.5665266324318</v>
+        <v>436.9573171770463</v>
       </c>
       <c r="S32" t="n">
-        <v>364.4436663717166</v>
+        <v>436.9573171770463</v>
       </c>
       <c r="T32" t="n">
-        <v>255.9970510540788</v>
+        <v>436.9573171770463</v>
       </c>
       <c r="U32" t="n">
-        <v>132.8741907933637</v>
+        <v>436.9573171770463</v>
       </c>
       <c r="V32" t="n">
-        <v>9.751330532648636</v>
+        <v>313.8344569163312</v>
       </c>
       <c r="W32" t="n">
-        <v>9.751330532648636</v>
+        <v>313.8344569163312</v>
       </c>
       <c r="X32" t="n">
-        <v>9.751330532648636</v>
+        <v>313.8344569163312</v>
       </c>
       <c r="Y32" t="n">
-        <v>9.751330532648636</v>
+        <v>190.7115966556161</v>
       </c>
     </row>
     <row r="33">
@@ -6755,43 +6755,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>367.0231244498535</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="C33" t="n">
-        <v>367.0231244498535</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="D33" t="n">
-        <v>367.0231244498535</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="E33" t="n">
-        <v>243.9002641891384</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="F33" t="n">
-        <v>120.7774039284233</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="G33" t="n">
-        <v>90.5680434211973</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="H33" t="n">
-        <v>9.751330532648636</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="I33" t="n">
-        <v>9.751330532648636</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="J33" t="n">
-        <v>9.751330532648636</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="K33" t="n">
-        <v>43.63722270065746</v>
+        <v>43.63722270065737</v>
       </c>
       <c r="L33" t="n">
-        <v>119.3106382502223</v>
+        <v>119.3106382502222</v>
       </c>
       <c r="M33" t="n">
-        <v>220.1999092241159</v>
+        <v>220.1999092241158</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1250381905292</v>
+        <v>333.125038190529</v>
       </c>
       <c r="O33" t="n">
         <v>421.9866026009626</v>
@@ -6800,31 +6800,31 @@
         <v>480.739349156109</v>
       </c>
       <c r="Q33" t="n">
-        <v>487.5665266324318</v>
+        <v>487.5665266324317</v>
       </c>
       <c r="R33" t="n">
-        <v>487.5665266324318</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="S33" t="n">
-        <v>367.0231244498535</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="T33" t="n">
-        <v>367.0231244498535</v>
+        <v>379.1199113147938</v>
       </c>
       <c r="U33" t="n">
-        <v>367.0231244498535</v>
+        <v>379.1199113147938</v>
       </c>
       <c r="V33" t="n">
-        <v>367.0231244498535</v>
+        <v>255.9970510540787</v>
       </c>
       <c r="W33" t="n">
-        <v>367.0231244498535</v>
+        <v>255.9970510540787</v>
       </c>
       <c r="X33" t="n">
-        <v>367.0231244498535</v>
+        <v>132.8741907933637</v>
       </c>
       <c r="Y33" t="n">
-        <v>367.0231244498535</v>
+        <v>9.751330532648632</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>487.5665266324318</v>
+        <v>44.03452756838843</v>
       </c>
       <c r="C34" t="n">
-        <v>487.5665266324318</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="D34" t="n">
-        <v>453.283329596692</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="E34" t="n">
-        <v>453.283329596692</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="F34" t="n">
-        <v>453.283329596692</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="G34" t="n">
-        <v>453.283329596692</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="H34" t="n">
-        <v>453.283329596692</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="I34" t="n">
-        <v>453.283329596692</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="J34" t="n">
-        <v>453.283329596692</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="K34" t="n">
-        <v>453.283329596692</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="L34" t="n">
-        <v>461.1077849295395</v>
+        <v>17.57578586549614</v>
       </c>
       <c r="M34" t="n">
-        <v>471.475459967653</v>
+        <v>27.94346090360967</v>
       </c>
       <c r="N34" t="n">
-        <v>486.7040067051195</v>
+        <v>43.17200764107618</v>
       </c>
       <c r="O34" t="n">
-        <v>487.5665266324318</v>
+        <v>44.03452756838843</v>
       </c>
       <c r="P34" t="n">
-        <v>487.5665266324318</v>
+        <v>44.03452756838843</v>
       </c>
       <c r="Q34" t="n">
-        <v>487.5665266324318</v>
+        <v>44.03452756838843</v>
       </c>
       <c r="R34" t="n">
-        <v>487.5665266324318</v>
+        <v>44.03452756838843</v>
       </c>
       <c r="S34" t="n">
-        <v>487.5665266324318</v>
+        <v>44.03452756838843</v>
       </c>
       <c r="T34" t="n">
-        <v>487.5665266324318</v>
+        <v>44.03452756838843</v>
       </c>
       <c r="U34" t="n">
-        <v>487.5665266324318</v>
+        <v>44.03452756838843</v>
       </c>
       <c r="V34" t="n">
-        <v>487.5665266324318</v>
+        <v>44.03452756838843</v>
       </c>
       <c r="W34" t="n">
-        <v>487.5665266324318</v>
+        <v>44.03452756838843</v>
       </c>
       <c r="X34" t="n">
-        <v>487.5665266324318</v>
+        <v>44.03452756838843</v>
       </c>
       <c r="Y34" t="n">
-        <v>487.5665266324318</v>
+        <v>44.03452756838843</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>255.997051054079</v>
+        <v>132.8741907933636</v>
       </c>
       <c r="C35" t="n">
-        <v>255.997051054079</v>
+        <v>132.8741907933636</v>
       </c>
       <c r="D35" t="n">
-        <v>132.8741907933638</v>
+        <v>9.751330532648625</v>
       </c>
       <c r="E35" t="n">
-        <v>9.751330532648641</v>
+        <v>9.751330532648625</v>
       </c>
       <c r="F35" t="n">
-        <v>9.751330532648641</v>
+        <v>9.751330532648625</v>
       </c>
       <c r="G35" t="n">
-        <v>9.751330532648641</v>
+        <v>9.751330532648625</v>
       </c>
       <c r="H35" t="n">
-        <v>9.751330532648641</v>
+        <v>9.751330532648625</v>
       </c>
       <c r="I35" t="n">
-        <v>9.751330532648641</v>
+        <v>9.751330532648625</v>
       </c>
       <c r="J35" t="n">
-        <v>13.67191254441049</v>
+        <v>13.67191254441019</v>
       </c>
       <c r="K35" t="n">
-        <v>52.52788553388339</v>
+        <v>52.52788553388302</v>
       </c>
       <c r="L35" t="n">
-        <v>124.7183011151472</v>
+        <v>124.7183011151468</v>
       </c>
       <c r="M35" t="n">
-        <v>225.6291823919094</v>
+        <v>225.6291823919088</v>
       </c>
       <c r="N35" t="n">
-        <v>331.1718826730491</v>
+        <v>331.1718826730485</v>
       </c>
       <c r="O35" t="n">
-        <v>422.1649418990631</v>
+        <v>422.1649418990625</v>
       </c>
       <c r="P35" t="n">
-        <v>477.3997621913175</v>
+        <v>477.3997621913168</v>
       </c>
       <c r="Q35" t="n">
-        <v>487.566526632432</v>
+        <v>487.5665266324312</v>
       </c>
       <c r="R35" t="n">
-        <v>487.566526632432</v>
+        <v>436.9573171770459</v>
       </c>
       <c r="S35" t="n">
-        <v>487.566526632432</v>
+        <v>313.8344569163309</v>
       </c>
       <c r="T35" t="n">
-        <v>487.566526632432</v>
+        <v>190.7115966556159</v>
       </c>
       <c r="U35" t="n">
-        <v>487.566526632432</v>
+        <v>190.7115966556159</v>
       </c>
       <c r="V35" t="n">
-        <v>487.566526632432</v>
+        <v>190.7115966556159</v>
       </c>
       <c r="W35" t="n">
-        <v>487.566526632432</v>
+        <v>132.8741907933636</v>
       </c>
       <c r="X35" t="n">
-        <v>487.566526632432</v>
+        <v>132.8741907933636</v>
       </c>
       <c r="Y35" t="n">
-        <v>364.4436663717169</v>
+        <v>132.8741907933636</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>9.751330532648641</v>
+        <v>9.751330532648625</v>
       </c>
       <c r="C36" t="n">
-        <v>9.751330532648641</v>
+        <v>9.751330532648625</v>
       </c>
       <c r="D36" t="n">
-        <v>9.751330532648641</v>
+        <v>9.751330532648625</v>
       </c>
       <c r="E36" t="n">
-        <v>9.751330532648641</v>
+        <v>9.751330532648625</v>
       </c>
       <c r="F36" t="n">
-        <v>9.751330532648641</v>
+        <v>9.751330532648625</v>
       </c>
       <c r="G36" t="n">
-        <v>9.751330532648641</v>
+        <v>9.751330532648625</v>
       </c>
       <c r="H36" t="n">
-        <v>9.751330532648641</v>
+        <v>9.751330532648625</v>
       </c>
       <c r="I36" t="n">
-        <v>9.751330532648641</v>
+        <v>9.751330532648625</v>
       </c>
       <c r="J36" t="n">
-        <v>9.751330532648641</v>
+        <v>9.751330532648625</v>
       </c>
       <c r="K36" t="n">
-        <v>43.63722270065738</v>
+        <v>43.63722270065733</v>
       </c>
       <c r="L36" t="n">
-        <v>119.3106382502222</v>
+        <v>119.3106382502221</v>
       </c>
       <c r="M36" t="n">
-        <v>220.1999092241158</v>
+        <v>220.1999092241157</v>
       </c>
       <c r="N36" t="n">
-        <v>333.125038190529</v>
+        <v>333.1250381905288</v>
       </c>
       <c r="O36" t="n">
-        <v>421.9866026009626</v>
+        <v>421.9866026009622</v>
       </c>
       <c r="P36" t="n">
-        <v>480.739349156109</v>
+        <v>480.7393491561086</v>
       </c>
       <c r="Q36" t="n">
-        <v>487.5665266324317</v>
+        <v>487.5665266324312</v>
       </c>
       <c r="R36" t="n">
-        <v>487.5665266324317</v>
+        <v>487.5665266324312</v>
       </c>
       <c r="S36" t="n">
-        <v>487.5665266324317</v>
+        <v>487.5665266324312</v>
       </c>
       <c r="T36" t="n">
-        <v>364.4436663717165</v>
+        <v>487.5665266324312</v>
       </c>
       <c r="U36" t="n">
-        <v>241.3208061110013</v>
+        <v>364.4436663717163</v>
       </c>
       <c r="V36" t="n">
-        <v>132.8741907933638</v>
+        <v>255.9970510540786</v>
       </c>
       <c r="W36" t="n">
-        <v>132.8741907933638</v>
+        <v>255.9970510540786</v>
       </c>
       <c r="X36" t="n">
-        <v>9.751330532648641</v>
+        <v>132.8741907933636</v>
       </c>
       <c r="Y36" t="n">
-        <v>9.751330532648641</v>
+        <v>9.751330532648625</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>453.2833295966923</v>
+        <v>44.03452756838829</v>
       </c>
       <c r="C37" t="n">
-        <v>453.2833295966923</v>
+        <v>44.03452756838829</v>
       </c>
       <c r="D37" t="n">
-        <v>453.2833295966923</v>
+        <v>44.03452756838829</v>
       </c>
       <c r="E37" t="n">
-        <v>453.2833295966923</v>
+        <v>44.03452756838829</v>
       </c>
       <c r="F37" t="n">
-        <v>453.2833295966923</v>
+        <v>44.03452756838829</v>
       </c>
       <c r="G37" t="n">
-        <v>453.2833295966923</v>
+        <v>44.03452756838829</v>
       </c>
       <c r="H37" t="n">
-        <v>453.2833295966923</v>
+        <v>44.03452756838829</v>
       </c>
       <c r="I37" t="n">
-        <v>453.2833295966923</v>
+        <v>9.751330532648625</v>
       </c>
       <c r="J37" t="n">
-        <v>453.2833295966923</v>
+        <v>9.751330532648625</v>
       </c>
       <c r="K37" t="n">
-        <v>453.2833295966923</v>
+        <v>9.751330532648625</v>
       </c>
       <c r="L37" t="n">
-        <v>461.1077849295398</v>
+        <v>17.5757858654961</v>
       </c>
       <c r="M37" t="n">
-        <v>471.4754599676533</v>
+        <v>27.9434609036096</v>
       </c>
       <c r="N37" t="n">
-        <v>486.7040067051198</v>
+        <v>43.17200764107608</v>
       </c>
       <c r="O37" t="n">
-        <v>487.566526632432</v>
+        <v>44.03452756838829</v>
       </c>
       <c r="P37" t="n">
-        <v>487.566526632432</v>
+        <v>44.03452756838829</v>
       </c>
       <c r="Q37" t="n">
-        <v>487.566526632432</v>
+        <v>44.03452756838829</v>
       </c>
       <c r="R37" t="n">
-        <v>487.566526632432</v>
+        <v>44.03452756838829</v>
       </c>
       <c r="S37" t="n">
-        <v>487.566526632432</v>
+        <v>44.03452756838829</v>
       </c>
       <c r="T37" t="n">
-        <v>487.566526632432</v>
+        <v>44.03452756838829</v>
       </c>
       <c r="U37" t="n">
-        <v>487.566526632432</v>
+        <v>44.03452756838829</v>
       </c>
       <c r="V37" t="n">
-        <v>453.2833295966923</v>
+        <v>44.03452756838829</v>
       </c>
       <c r="W37" t="n">
-        <v>453.2833295966923</v>
+        <v>44.03452756838829</v>
       </c>
       <c r="X37" t="n">
-        <v>453.2833295966923</v>
+        <v>44.03452756838829</v>
       </c>
       <c r="Y37" t="n">
-        <v>453.2833295966923</v>
+        <v>44.03452756838829</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>118.1979458502864</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="C38" t="n">
-        <v>118.1979458502864</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="D38" t="n">
-        <v>118.1979458502864</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="E38" t="n">
-        <v>118.1979458502864</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="F38" t="n">
-        <v>118.1979458502864</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="G38" t="n">
-        <v>118.1979458502864</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="H38" t="n">
         <v>9.751330532648632</v>
@@ -7174,25 +7174,25 @@
         <v>9.751330532648632</v>
       </c>
       <c r="J38" t="n">
-        <v>13.67191254441023</v>
+        <v>13.67191254441036</v>
       </c>
       <c r="K38" t="n">
-        <v>52.52788553388314</v>
+        <v>52.52788553388336</v>
       </c>
       <c r="L38" t="n">
-        <v>124.7183011151467</v>
+        <v>124.7183011151471</v>
       </c>
       <c r="M38" t="n">
-        <v>225.6291823919089</v>
+        <v>225.6291823919091</v>
       </c>
       <c r="N38" t="n">
-        <v>331.1718826730487</v>
+        <v>331.1718826730489</v>
       </c>
       <c r="O38" t="n">
-        <v>422.1649418990627</v>
+        <v>422.1649418990628</v>
       </c>
       <c r="P38" t="n">
-        <v>477.399762191317</v>
+        <v>477.3997621913171</v>
       </c>
       <c r="Q38" t="n">
         <v>487.5665266324316</v>
@@ -7201,13 +7201,13 @@
         <v>487.5665266324316</v>
       </c>
       <c r="S38" t="n">
-        <v>487.5665266324316</v>
+        <v>364.4436663717165</v>
       </c>
       <c r="T38" t="n">
-        <v>364.4436663717165</v>
+        <v>241.3208061110014</v>
       </c>
       <c r="U38" t="n">
-        <v>364.4436663717165</v>
+        <v>241.3208061110014</v>
       </c>
       <c r="V38" t="n">
         <v>241.3208061110014</v>
@@ -7216,10 +7216,10 @@
         <v>118.1979458502864</v>
       </c>
       <c r="X38" t="n">
-        <v>118.1979458502864</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="Y38" t="n">
-        <v>118.1979458502864</v>
+        <v>9.751330532648632</v>
       </c>
     </row>
     <row r="39">
@@ -7229,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>243.9002641891382</v>
+        <v>364.4436663717165</v>
       </c>
       <c r="C39" t="n">
-        <v>243.9002641891382</v>
+        <v>241.3208061110014</v>
       </c>
       <c r="D39" t="n">
-        <v>243.9002641891382</v>
+        <v>241.3208061110014</v>
       </c>
       <c r="E39" t="n">
-        <v>243.9002641891382</v>
+        <v>129.0365797048923</v>
       </c>
       <c r="F39" t="n">
         <v>129.0365797048923</v>
@@ -7256,19 +7256,19 @@
         <v>9.751330532648632</v>
       </c>
       <c r="K39" t="n">
-        <v>43.63722270065738</v>
+        <v>43.63722270065762</v>
       </c>
       <c r="L39" t="n">
-        <v>119.3106382502222</v>
+        <v>119.3106382502224</v>
       </c>
       <c r="M39" t="n">
-        <v>220.1999092241158</v>
+        <v>220.199909224116</v>
       </c>
       <c r="N39" t="n">
-        <v>333.125038190529</v>
+        <v>333.1250381905292</v>
       </c>
       <c r="O39" t="n">
-        <v>421.9866026009624</v>
+        <v>421.9866026009626</v>
       </c>
       <c r="P39" t="n">
         <v>480.7393491561089</v>
@@ -7280,25 +7280,25 @@
         <v>487.5665266324316</v>
       </c>
       <c r="S39" t="n">
-        <v>367.0231244498533</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="T39" t="n">
-        <v>243.9002641891382</v>
+        <v>364.4436663717165</v>
       </c>
       <c r="U39" t="n">
-        <v>243.9002641891382</v>
+        <v>364.4436663717165</v>
       </c>
       <c r="V39" t="n">
-        <v>243.9002641891382</v>
+        <v>364.4436663717165</v>
       </c>
       <c r="W39" t="n">
-        <v>243.9002641891382</v>
+        <v>364.4436663717165</v>
       </c>
       <c r="X39" t="n">
-        <v>243.9002641891382</v>
+        <v>364.4436663717165</v>
       </c>
       <c r="Y39" t="n">
-        <v>243.9002641891382</v>
+        <v>364.4436663717165</v>
       </c>
     </row>
     <row r="40">
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>44.03452756838843</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="C40" t="n">
-        <v>44.03452756838843</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="D40" t="n">
         <v>9.751330532648632</v>
@@ -7338,46 +7338,46 @@
         <v>9.751330532648632</v>
       </c>
       <c r="L40" t="n">
-        <v>17.57578586549614</v>
+        <v>17.57578586549611</v>
       </c>
       <c r="M40" t="n">
-        <v>27.94346090360967</v>
+        <v>27.94346090360961</v>
       </c>
       <c r="N40" t="n">
-        <v>43.17200764107618</v>
+        <v>43.17200764107609</v>
       </c>
       <c r="O40" t="n">
-        <v>44.03452756838843</v>
+        <v>44.0345275683883</v>
       </c>
       <c r="P40" t="n">
-        <v>44.03452756838843</v>
+        <v>44.0345275683883</v>
       </c>
       <c r="Q40" t="n">
-        <v>44.03452756838843</v>
+        <v>44.0345275683883</v>
       </c>
       <c r="R40" t="n">
-        <v>44.03452756838843</v>
+        <v>44.0345275683883</v>
       </c>
       <c r="S40" t="n">
-        <v>44.03452756838843</v>
+        <v>44.0345275683883</v>
       </c>
       <c r="T40" t="n">
-        <v>44.03452756838843</v>
+        <v>44.0345275683883</v>
       </c>
       <c r="U40" t="n">
-        <v>44.03452756838843</v>
+        <v>44.0345275683883</v>
       </c>
       <c r="V40" t="n">
-        <v>44.03452756838843</v>
+        <v>44.0345275683883</v>
       </c>
       <c r="W40" t="n">
-        <v>44.03452756838843</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="X40" t="n">
-        <v>44.03452756838843</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="Y40" t="n">
-        <v>44.03452756838843</v>
+        <v>9.751330532648632</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>255.9970510540788</v>
+        <v>9.751330532648625</v>
       </c>
       <c r="C41" t="n">
-        <v>132.8741907933637</v>
+        <v>9.751330532648625</v>
       </c>
       <c r="D41" t="n">
-        <v>132.8741907933637</v>
+        <v>9.751330532648625</v>
       </c>
       <c r="E41" t="n">
-        <v>132.8741907933637</v>
+        <v>9.751330532648625</v>
       </c>
       <c r="F41" t="n">
-        <v>132.8741907933637</v>
+        <v>9.751330532648625</v>
       </c>
       <c r="G41" t="n">
-        <v>132.8741907933637</v>
+        <v>9.751330532648625</v>
       </c>
       <c r="H41" t="n">
-        <v>9.751330532648636</v>
+        <v>9.751330532648625</v>
       </c>
       <c r="I41" t="n">
-        <v>9.751330532648636</v>
+        <v>9.751330532648625</v>
       </c>
       <c r="J41" t="n">
-        <v>13.67191254441022</v>
+        <v>13.67191254441019</v>
       </c>
       <c r="K41" t="n">
-        <v>52.52788553388311</v>
+        <v>52.52788553388302</v>
       </c>
       <c r="L41" t="n">
-        <v>124.718301115147</v>
+        <v>124.7183011151468</v>
       </c>
       <c r="M41" t="n">
-        <v>225.6291823919091</v>
+        <v>225.6291823919088</v>
       </c>
       <c r="N41" t="n">
-        <v>331.1718826730489</v>
+        <v>331.1718826730485</v>
       </c>
       <c r="O41" t="n">
-        <v>422.1649418990629</v>
+        <v>422.1649418990625</v>
       </c>
       <c r="P41" t="n">
-        <v>477.3997621913173</v>
+        <v>477.3997621913168</v>
       </c>
       <c r="Q41" t="n">
-        <v>487.5665266324318</v>
+        <v>487.5665266324312</v>
       </c>
       <c r="R41" t="n">
-        <v>487.5665266324318</v>
+        <v>436.9573171770459</v>
       </c>
       <c r="S41" t="n">
-        <v>487.5665266324318</v>
+        <v>436.9573171770459</v>
       </c>
       <c r="T41" t="n">
-        <v>487.5665266324318</v>
+        <v>436.9573171770459</v>
       </c>
       <c r="U41" t="n">
-        <v>364.4436663717166</v>
+        <v>436.9573171770459</v>
       </c>
       <c r="V41" t="n">
-        <v>364.4436663717166</v>
+        <v>313.8344569163309</v>
       </c>
       <c r="W41" t="n">
-        <v>364.4436663717166</v>
+        <v>190.7115966556159</v>
       </c>
       <c r="X41" t="n">
-        <v>364.4436663717166</v>
+        <v>67.58873639490098</v>
       </c>
       <c r="Y41" t="n">
-        <v>255.9970510540788</v>
+        <v>9.751330532648625</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>129.2427538127725</v>
+        <v>9.751330532648625</v>
       </c>
       <c r="C42" t="n">
-        <v>129.2427538127725</v>
+        <v>9.751330532648625</v>
       </c>
       <c r="D42" t="n">
-        <v>129.2427538127725</v>
+        <v>9.751330532648625</v>
       </c>
       <c r="E42" t="n">
-        <v>129.2427538127725</v>
+        <v>9.751330532648625</v>
       </c>
       <c r="F42" t="n">
-        <v>129.2427538127725</v>
+        <v>9.751330532648625</v>
       </c>
       <c r="G42" t="n">
-        <v>129.2427538127725</v>
+        <v>9.751330532648625</v>
       </c>
       <c r="H42" t="n">
-        <v>48.42604092422387</v>
+        <v>9.751330532648625</v>
       </c>
       <c r="I42" t="n">
-        <v>9.751330532648636</v>
+        <v>9.751330532648625</v>
       </c>
       <c r="J42" t="n">
-        <v>9.751330532648636</v>
+        <v>9.751330532648625</v>
       </c>
       <c r="K42" t="n">
-        <v>43.63722270065738</v>
+        <v>43.63722270065733</v>
       </c>
       <c r="L42" t="n">
-        <v>119.3106382502222</v>
+        <v>119.3106382502221</v>
       </c>
       <c r="M42" t="n">
-        <v>220.1999092241158</v>
+        <v>220.1999092241157</v>
       </c>
       <c r="N42" t="n">
-        <v>333.125038190529</v>
+        <v>333.1250381905288</v>
       </c>
       <c r="O42" t="n">
-        <v>421.9866026009626</v>
+        <v>421.9866026009622</v>
       </c>
       <c r="P42" t="n">
-        <v>480.739349156109</v>
+        <v>480.7393491561086</v>
       </c>
       <c r="Q42" t="n">
-        <v>487.5665266324317</v>
+        <v>487.5665266324313</v>
       </c>
       <c r="R42" t="n">
-        <v>487.5665266324317</v>
+        <v>487.5665266324313</v>
       </c>
       <c r="S42" t="n">
-        <v>375.4884743342027</v>
+        <v>487.5665266324313</v>
       </c>
       <c r="T42" t="n">
-        <v>375.4884743342027</v>
+        <v>487.5665266324313</v>
       </c>
       <c r="U42" t="n">
-        <v>375.4884743342027</v>
+        <v>379.1199113147935</v>
       </c>
       <c r="V42" t="n">
-        <v>252.3656140734876</v>
+        <v>255.9970510540786</v>
       </c>
       <c r="W42" t="n">
-        <v>129.2427538127725</v>
+        <v>132.8741907933636</v>
       </c>
       <c r="X42" t="n">
-        <v>129.2427538127725</v>
+        <v>9.751330532648625</v>
       </c>
       <c r="Y42" t="n">
-        <v>129.2427538127725</v>
+        <v>9.751330532648625</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>44.03452756838843</v>
+        <v>9.751330532648625</v>
       </c>
       <c r="C43" t="n">
-        <v>44.03452756838843</v>
+        <v>9.751330532648625</v>
       </c>
       <c r="D43" t="n">
-        <v>44.03452756838843</v>
+        <v>9.751330532648625</v>
       </c>
       <c r="E43" t="n">
-        <v>44.03452756838843</v>
+        <v>9.751330532648625</v>
       </c>
       <c r="F43" t="n">
-        <v>44.03452756838843</v>
+        <v>9.751330532648625</v>
       </c>
       <c r="G43" t="n">
-        <v>44.03452756838843</v>
+        <v>9.751330532648625</v>
       </c>
       <c r="H43" t="n">
-        <v>9.751330532648636</v>
+        <v>9.751330532648625</v>
       </c>
       <c r="I43" t="n">
-        <v>9.751330532648636</v>
+        <v>9.751330532648625</v>
       </c>
       <c r="J43" t="n">
-        <v>9.751330532648636</v>
+        <v>9.751330532648625</v>
       </c>
       <c r="K43" t="n">
-        <v>9.751330532648636</v>
+        <v>9.751330532648625</v>
       </c>
       <c r="L43" t="n">
-        <v>17.57578586549614</v>
+        <v>17.5757858654961</v>
       </c>
       <c r="M43" t="n">
-        <v>27.94346090360967</v>
+        <v>27.9434609036096</v>
       </c>
       <c r="N43" t="n">
-        <v>43.17200764107618</v>
+        <v>43.17200764107608</v>
       </c>
       <c r="O43" t="n">
-        <v>44.03452756838843</v>
+        <v>44.03452756838829</v>
       </c>
       <c r="P43" t="n">
-        <v>44.03452756838843</v>
+        <v>44.03452756838829</v>
       </c>
       <c r="Q43" t="n">
-        <v>44.03452756838843</v>
+        <v>44.03452756838829</v>
       </c>
       <c r="R43" t="n">
-        <v>44.03452756838843</v>
+        <v>44.03452756838829</v>
       </c>
       <c r="S43" t="n">
-        <v>44.03452756838843</v>
+        <v>44.03452756838829</v>
       </c>
       <c r="T43" t="n">
-        <v>44.03452756838843</v>
+        <v>9.751330532648625</v>
       </c>
       <c r="U43" t="n">
-        <v>44.03452756838843</v>
+        <v>9.751330532648625</v>
       </c>
       <c r="V43" t="n">
-        <v>44.03452756838843</v>
+        <v>9.751330532648625</v>
       </c>
       <c r="W43" t="n">
-        <v>44.03452756838843</v>
+        <v>9.751330532648625</v>
       </c>
       <c r="X43" t="n">
-        <v>44.03452756838843</v>
+        <v>9.751330532648625</v>
       </c>
       <c r="Y43" t="n">
-        <v>44.03452756838843</v>
+        <v>9.751330532648625</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>190.7115966556163</v>
+        <v>67.58873639490106</v>
       </c>
       <c r="C44" t="n">
-        <v>67.58873639490118</v>
+        <v>67.58873639490106</v>
       </c>
       <c r="D44" t="n">
-        <v>67.58873639490118</v>
+        <v>67.58873639490106</v>
       </c>
       <c r="E44" t="n">
-        <v>9.751330532648641</v>
+        <v>67.58873639490106</v>
       </c>
       <c r="F44" t="n">
-        <v>9.751330532648641</v>
+        <v>67.58873639490106</v>
       </c>
       <c r="G44" t="n">
-        <v>9.751330532648641</v>
+        <v>67.58873639490106</v>
       </c>
       <c r="H44" t="n">
-        <v>9.751330532648641</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="I44" t="n">
-        <v>9.751330532648641</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="J44" t="n">
-        <v>13.67191254441042</v>
+        <v>13.67191254441025</v>
       </c>
       <c r="K44" t="n">
-        <v>52.52788553388319</v>
+        <v>52.52788553388314</v>
       </c>
       <c r="L44" t="n">
-        <v>124.7183011151471</v>
+        <v>124.7183011151467</v>
       </c>
       <c r="M44" t="n">
-        <v>225.6291823919092</v>
+        <v>225.6291823919088</v>
       </c>
       <c r="N44" t="n">
-        <v>331.171882673049</v>
+        <v>331.1718826730486</v>
       </c>
       <c r="O44" t="n">
-        <v>422.164941899063</v>
+        <v>422.1649418990627</v>
       </c>
       <c r="P44" t="n">
-        <v>477.3997621913173</v>
+        <v>477.3997621913171</v>
       </c>
       <c r="Q44" t="n">
-        <v>487.566526632432</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="R44" t="n">
-        <v>436.9573171770467</v>
+        <v>436.9573171770463</v>
       </c>
       <c r="S44" t="n">
-        <v>313.8344569163315</v>
+        <v>313.8344569163312</v>
       </c>
       <c r="T44" t="n">
-        <v>313.8344569163315</v>
+        <v>190.7115966556161</v>
       </c>
       <c r="U44" t="n">
-        <v>313.8344569163315</v>
+        <v>67.58873639490106</v>
       </c>
       <c r="V44" t="n">
-        <v>190.7115966556163</v>
+        <v>67.58873639490106</v>
       </c>
       <c r="W44" t="n">
-        <v>190.7115966556163</v>
+        <v>67.58873639490106</v>
       </c>
       <c r="X44" t="n">
-        <v>190.7115966556163</v>
+        <v>67.58873639490106</v>
       </c>
       <c r="Y44" t="n">
-        <v>190.7115966556163</v>
+        <v>67.58873639490106</v>
       </c>
     </row>
     <row r="45">
@@ -7703,31 +7703,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>132.8741907933638</v>
+        <v>252.1594399656074</v>
       </c>
       <c r="C45" t="n">
-        <v>9.751330532648641</v>
+        <v>252.1594399656074</v>
       </c>
       <c r="D45" t="n">
-        <v>9.751330532648641</v>
+        <v>252.1594399656074</v>
       </c>
       <c r="E45" t="n">
-        <v>9.751330532648641</v>
+        <v>252.1594399656074</v>
       </c>
       <c r="F45" t="n">
-        <v>9.751330532648641</v>
+        <v>129.0365797048923</v>
       </c>
       <c r="G45" t="n">
-        <v>9.751330532648641</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="H45" t="n">
-        <v>9.751330532648641</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="I45" t="n">
-        <v>9.751330532648641</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="J45" t="n">
-        <v>9.751330532648641</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="K45" t="n">
         <v>43.63722270065738</v>
@@ -7742,37 +7742,37 @@
         <v>333.125038190529</v>
       </c>
       <c r="O45" t="n">
-        <v>421.9866026009626</v>
+        <v>421.9866026009624</v>
       </c>
       <c r="P45" t="n">
-        <v>480.739349156109</v>
+        <v>480.7393491561089</v>
       </c>
       <c r="Q45" t="n">
-        <v>487.5665266324317</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="R45" t="n">
-        <v>487.5665266324317</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="S45" t="n">
-        <v>487.5665266324317</v>
+        <v>367.0231244498533</v>
       </c>
       <c r="T45" t="n">
-        <v>487.5665266324317</v>
+        <v>252.1594399656074</v>
       </c>
       <c r="U45" t="n">
-        <v>487.5665266324317</v>
+        <v>252.1594399656074</v>
       </c>
       <c r="V45" t="n">
-        <v>364.4436663717165</v>
+        <v>252.1594399656074</v>
       </c>
       <c r="W45" t="n">
-        <v>364.4436663717165</v>
+        <v>252.1594399656074</v>
       </c>
       <c r="X45" t="n">
-        <v>241.3208061110013</v>
+        <v>252.1594399656074</v>
       </c>
       <c r="Y45" t="n">
-        <v>132.8741907933638</v>
+        <v>252.1594399656074</v>
       </c>
     </row>
     <row r="46">
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>44.03452756838843</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="C46" t="n">
-        <v>9.751330532648641</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="D46" t="n">
-        <v>9.751330532648641</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="E46" t="n">
-        <v>9.751330532648641</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="F46" t="n">
-        <v>9.751330532648641</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="G46" t="n">
-        <v>9.751330532648641</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="H46" t="n">
-        <v>9.751330532648641</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="I46" t="n">
-        <v>9.751330532648641</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="J46" t="n">
-        <v>9.751330532648641</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="K46" t="n">
-        <v>9.751330532648641</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="L46" t="n">
         <v>17.57578586549614</v>
@@ -7818,7 +7818,7 @@
         <v>27.94346090360967</v>
       </c>
       <c r="N46" t="n">
-        <v>43.17200764107619</v>
+        <v>43.17200764107618</v>
       </c>
       <c r="O46" t="n">
         <v>44.03452756838843</v>
@@ -7845,13 +7845,13 @@
         <v>44.03452756838843</v>
       </c>
       <c r="W46" t="n">
-        <v>44.03452756838843</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="X46" t="n">
-        <v>44.03452756838843</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="Y46" t="n">
-        <v>44.03452756838843</v>
+        <v>9.751330532648632</v>
       </c>
     </row>
   </sheetData>
@@ -22810,7 +22810,7 @@
         <v>45.30876821055361</v>
       </c>
       <c r="K5" t="n">
-        <v>34.59292991576665</v>
+        <v>34.59292991576666</v>
       </c>
       <c r="L5" t="n">
         <v>18.68715897392866</v>
@@ -22828,7 +22828,7 @@
         <v>27.68343765293218</v>
       </c>
       <c r="Q5" t="n">
-        <v>52.41767977011629</v>
+        <v>52.41767977011631</v>
       </c>
       <c r="R5" t="n">
         <v>86.56775819371971</v>
@@ -22883,7 +22883,7 @@
         <v>83.00822261809724</v>
       </c>
       <c r="I6" t="n">
-        <v>48.98163419533763</v>
+        <v>48.98163419533764</v>
       </c>
       <c r="J6" t="n">
         <v>39.34074399253945</v>
@@ -22977,13 +22977,13 @@
         <v>30.34506479299962</v>
       </c>
       <c r="N7" t="n">
-        <v>24.46454532135643</v>
+        <v>24.46454532135644</v>
       </c>
       <c r="O7" t="n">
         <v>35.9338438677494</v>
       </c>
       <c r="P7" t="n">
-        <v>43.26304678555945</v>
+        <v>43.26304678555946</v>
       </c>
       <c r="Q7" t="n">
         <v>66.45011700163332</v>
@@ -23044,13 +23044,13 @@
         <v>104.0803818793758</v>
       </c>
       <c r="J8" t="n">
-        <v>45.30876821055361</v>
+        <v>45.30876821055362</v>
       </c>
       <c r="K8" t="n">
-        <v>34.59292991576665</v>
+        <v>34.59292991576666</v>
       </c>
       <c r="L8" t="n">
-        <v>18.68715897392866</v>
+        <v>18.68715897392869</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -23059,16 +23059,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>5.895022563523497</v>
+        <v>5.895022563523526</v>
       </c>
       <c r="P8" t="n">
-        <v>27.68343765293218</v>
+        <v>27.6834376529322</v>
       </c>
       <c r="Q8" t="n">
-        <v>52.41767977011629</v>
+        <v>52.41767977011631</v>
       </c>
       <c r="R8" t="n">
-        <v>86.56775819371971</v>
+        <v>86.56775819371973</v>
       </c>
       <c r="S8" t="n">
         <v>145.4177268441001</v>
@@ -23120,13 +23120,13 @@
         <v>83.00822261809724</v>
       </c>
       <c r="I9" t="n">
-        <v>48.98163419533763</v>
+        <v>48.98163419533764</v>
       </c>
       <c r="J9" t="n">
-        <v>39.34074399253945</v>
+        <v>39.34074399253946</v>
       </c>
       <c r="K9" t="n">
-        <v>15.92582377546655</v>
+        <v>15.92582377546657</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -23147,7 +23147,7 @@
         <v>32.7508163066282</v>
       </c>
       <c r="R9" t="n">
-        <v>66.36540832016887</v>
+        <v>66.36540832016888</v>
       </c>
       <c r="S9" t="n">
         <v>125.1071014466145</v>
@@ -23202,25 +23202,25 @@
         <v>120.261031053682</v>
       </c>
       <c r="J10" t="n">
-        <v>55.50513938830231</v>
+        <v>55.50513938830232</v>
       </c>
       <c r="K10" t="n">
-        <v>39.42049456093673</v>
+        <v>39.42049456093674</v>
       </c>
       <c r="L10" t="n">
         <v>30.80954133327054</v>
       </c>
       <c r="M10" t="n">
-        <v>30.34506479299962</v>
+        <v>30.34506479299963</v>
       </c>
       <c r="N10" t="n">
-        <v>24.46454532135643</v>
+        <v>24.46454532135644</v>
       </c>
       <c r="O10" t="n">
         <v>35.9338438677494</v>
       </c>
       <c r="P10" t="n">
-        <v>43.26304678555945</v>
+        <v>43.26304678555946</v>
       </c>
       <c r="Q10" t="n">
         <v>66.45011700163332</v>
@@ -23257,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.4897982542829</v>
+        <v>312.4174570085756</v>
       </c>
       <c r="C11" t="n">
-        <v>389.2437464820987</v>
+        <v>293.7937677744382</v>
       </c>
       <c r="D11" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>398.5576896346209</v>
+        <v>303.1077109269604</v>
       </c>
       <c r="F11" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>407.6930376611896</v>
+        <v>312.2430589535292</v>
       </c>
       <c r="H11" t="n">
         <v>307.1385026884676</v>
@@ -23281,7 +23281,7 @@
         <v>85.36701961397866</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>4.111096708763768</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23305,19 +23305,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>56.07678504272418</v>
       </c>
       <c r="S11" t="n">
-        <v>38.90670818772712</v>
+        <v>134.3566868953876</v>
       </c>
       <c r="T11" t="n">
-        <v>119.9581274391462</v>
+        <v>215.4081061468067</v>
       </c>
       <c r="U11" t="n">
-        <v>157.6381763384319</v>
+        <v>253.0881550460924</v>
       </c>
       <c r="V11" t="n">
-        <v>314.8012817092974</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
         <v>367.2890446813954</v>
@@ -23339,28 +23339,28 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C12" t="n">
-        <v>65.07534688980134</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D12" t="n">
-        <v>33.33809899707394</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E12" t="n">
-        <v>39.63204727256063</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F12" t="n">
-        <v>27.737509348039</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G12" t="n">
         <v>118.1432783231948</v>
       </c>
       <c r="H12" t="n">
-        <v>80.49995530864159</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>40.03980931830455</v>
       </c>
       <c r="J12" t="n">
-        <v>14.80369307837769</v>
+        <v>11.23130714131196</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23393,13 +23393,13 @@
         <v>172.3282273226375</v>
       </c>
       <c r="U12" t="n">
-        <v>207.9154104785617</v>
+        <v>112.4654317709013</v>
       </c>
       <c r="V12" t="n">
-        <v>220.3146016126436</v>
+        <v>124.8646229049832</v>
       </c>
       <c r="W12" t="n">
-        <v>227.816073408046</v>
+        <v>132.3660947003855</v>
       </c>
       <c r="X12" t="n">
         <v>187.4140068734885</v>
@@ -23424,7 +23424,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>140.0840856350925</v>
       </c>
       <c r="F13" t="n">
         <v>155.7526754391568</v>
@@ -23442,7 +23442,7 @@
         <v>40.1113821798221</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2046843077472147</v>
+        <v>14.12382269204421</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23503,13 +23503,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>398.5576896346209</v>
+        <v>303.1077109269604</v>
       </c>
       <c r="F14" t="n">
-        <v>412.725494085322</v>
+        <v>317.2755153776615</v>
       </c>
       <c r="G14" t="n">
-        <v>407.6930376611896</v>
+        <v>323.6206964154823</v>
       </c>
       <c r="H14" t="n">
         <v>307.1385026884676</v>
@@ -23518,7 +23518,7 @@
         <v>85.36701961397864</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>4.111096708763753</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>56.07678504272417</v>
+        <v>56.07678504272418</v>
       </c>
       <c r="S14" t="n">
         <v>134.3566868953876</v>
@@ -23554,16 +23554,16 @@
         <v>253.0881550460924</v>
       </c>
       <c r="V14" t="n">
-        <v>243.2357624958562</v>
+        <v>243.2357624958563</v>
       </c>
       <c r="W14" t="n">
-        <v>271.8390659737349</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>290.1081003086132</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>312.5645574516613</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="15">
@@ -23579,25 +23579,25 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D15" t="n">
-        <v>33.33809899707394</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E15" t="n">
-        <v>39.63204727256063</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F15" t="n">
-        <v>27.737509348039</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G15" t="n">
-        <v>34.07093707748743</v>
+        <v>118.1432783231948</v>
       </c>
       <c r="H15" t="n">
-        <v>80.49995530864159</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>40.03980931830454</v>
+        <v>40.03980931830455</v>
       </c>
       <c r="J15" t="n">
-        <v>14.80369307837768</v>
+        <v>11.23130714131195</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23627,16 +23627,16 @@
         <v>120.2830723569031</v>
       </c>
       <c r="T15" t="n">
-        <v>172.3282273226375</v>
+        <v>76.87824861497702</v>
       </c>
       <c r="U15" t="n">
-        <v>207.9154104785617</v>
+        <v>112.4654317709012</v>
       </c>
       <c r="V15" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W15" t="n">
-        <v>227.816073408046</v>
+        <v>132.3660947003855</v>
       </c>
       <c r="X15" t="n">
         <v>187.4140068734885</v>
@@ -23664,7 +23664,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>141.8335370548598</v>
       </c>
       <c r="G16" t="n">
         <v>165.9712921203073</v>
@@ -23691,13 +23691,13 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>5.158205822558372</v>
+        <v>5.158205822558386</v>
       </c>
       <c r="P16" t="n">
         <v>16.92917178213644</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.21790694025858</v>
+        <v>48.21790694025859</v>
       </c>
       <c r="R16" t="n">
         <v>95.67384984482834</v>
@@ -23715,7 +23715,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>266.5779596638371</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
         <v>231.7395189948467</v>
@@ -23734,25 +23734,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>389.2437464820987</v>
+        <v>281.8815973176373</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>259.695085837391</v>
       </c>
       <c r="E17" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>290.8338624272141</v>
       </c>
       <c r="G17" t="n">
-        <v>407.5979401715768</v>
+        <v>285.7063085134689</v>
       </c>
       <c r="H17" t="n">
         <v>306.1645855229701</v>
       </c>
       <c r="I17" t="n">
-        <v>81.70077364567956</v>
+        <v>81.70077364567955</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,22 +23779,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>50.10311736083149</v>
+        <v>50.10311736083148</v>
       </c>
       <c r="S17" t="n">
-        <v>10.29802119272705</v>
+        <v>132.189652850835</v>
       </c>
       <c r="T17" t="n">
-        <v>93.10018522791856</v>
+        <v>214.9918168860265</v>
       </c>
       <c r="U17" t="n">
-        <v>131.1889155888154</v>
+        <v>253.0805472469234</v>
       </c>
       <c r="V17" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>259.926895516934</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
         <v>385.5580790162737</v>
@@ -23819,22 +23819,22 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E18" t="n">
-        <v>30.32201289861571</v>
+        <v>27.71987681575976</v>
       </c>
       <c r="F18" t="n">
-        <v>1.295856397591578</v>
+        <v>1.295856397591621</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>118.0923966805212</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>80.00854575966318</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>38.28796328765948</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>9.996493671227952</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>47.0813821585011</v>
+        <v>47.08138215850109</v>
       </c>
       <c r="S18" t="n">
         <v>119.3379681607525</v>
       </c>
       <c r="T18" t="n">
-        <v>172.1231385962474</v>
+        <v>50.23150693813947</v>
       </c>
       <c r="U18" t="n">
-        <v>207.9120630020701</v>
+        <v>86.02043134396216</v>
       </c>
       <c r="V18" t="n">
         <v>220.3146016126436</v>
@@ -23913,10 +23913,10 @@
         <v>112.4303652576383</v>
       </c>
       <c r="J19" t="n">
-        <v>37.09549975836522</v>
+        <v>37.09549975836521</v>
       </c>
       <c r="K19" t="n">
-        <v>9.167801431118548</v>
+        <v>9.167801431118534</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23931,10 +23931,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>11.76994589361101</v>
+        <v>11.76994589361099</v>
       </c>
       <c r="Q19" t="n">
-        <v>44.64592635853822</v>
+        <v>44.64592635853821</v>
       </c>
       <c r="R19" t="n">
         <v>93.75581532553738</v>
@@ -23943,10 +23943,10 @@
         <v>189.5843005223167</v>
       </c>
       <c r="T19" t="n">
-        <v>230.6150159536303</v>
+        <v>196.6746508882479</v>
       </c>
       <c r="U19" t="n">
-        <v>248.6089726641593</v>
+        <v>282.5493377295417</v>
       </c>
       <c r="V19" t="n">
         <v>263.319551727384</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>339.2307664506529</v>
+        <v>274.598166596175</v>
       </c>
       <c r="C20" t="n">
         <v>389.2437464820987</v>
@@ -23977,10 +23977,10 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>276.6660579765129</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>305.3633449208606</v>
       </c>
       <c r="G20" t="n">
         <v>407.5979401715768</v>
@@ -23989,7 +23989,7 @@
         <v>306.1645855229701</v>
       </c>
       <c r="I20" t="n">
-        <v>81.70077364567953</v>
+        <v>81.70077364567955</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>50.10311736083148</v>
       </c>
       <c r="S20" t="n">
         <v>132.189652850835</v>
@@ -24031,10 +24031,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>245.3974130232874</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>263.6664473581657</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
         <v>270.6341703304969</v>
@@ -24053,10 +24053,10 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D21" t="n">
-        <v>6.896446046626451</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E21" t="n">
-        <v>13.19039432211314</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F21" t="n">
         <v>123.1874880556995</v>
@@ -24065,13 +24065,13 @@
         <v>118.0923966805212</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>80.00854575966318</v>
       </c>
       <c r="I21" t="n">
-        <v>8.380696385505644</v>
+        <v>38.28796328765948</v>
       </c>
       <c r="J21" t="n">
-        <v>9.996493671227938</v>
+        <v>9.996493671227952</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,13 +24095,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>47.08138215850108</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>119.3379681607525</v>
       </c>
       <c r="T21" t="n">
-        <v>172.1231385962474</v>
+        <v>50.23150693813943</v>
       </c>
       <c r="U21" t="n">
         <v>207.9120630020701</v>
@@ -24110,13 +24110,13 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W21" t="n">
-        <v>227.816073408046</v>
+        <v>105.9244417499381</v>
       </c>
       <c r="X21" t="n">
-        <v>187.4140068734885</v>
+        <v>127.1332398675281</v>
       </c>
       <c r="Y21" t="n">
-        <v>177.5210747552478</v>
+        <v>55.6294430971399</v>
       </c>
     </row>
     <row r="22">
@@ -24144,7 +24144,7 @@
         <v>165.9286346603149</v>
       </c>
       <c r="H22" t="n">
-        <v>148.2079894389679</v>
+        <v>148.207989438968</v>
       </c>
       <c r="I22" t="n">
         <v>112.4303652576383</v>
@@ -24153,7 +24153,7 @@
         <v>37.09549975836521</v>
       </c>
       <c r="K22" t="n">
-        <v>9.167801431118519</v>
+        <v>9.167801431118534</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24168,10 +24168,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>11.76994589361098</v>
+        <v>11.76994589361099</v>
       </c>
       <c r="Q22" t="n">
-        <v>44.6459263585382</v>
+        <v>44.64592635853821</v>
       </c>
       <c r="R22" t="n">
         <v>93.75581532553738</v>
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>370.8284227355009</v>
+        <v>274.598166596175</v>
       </c>
       <c r="C23" t="n">
-        <v>267.3521148239906</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>259.6950858373909</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>276.6660579765128</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>407.5979401715768</v>
+        <v>350.3389083679468</v>
       </c>
       <c r="H23" t="n">
         <v>306.1645855229701</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>81.70077364567955</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>50.10311736083146</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>132.189652850835</v>
@@ -24262,7 +24262,7 @@
         <v>214.9918168860265</v>
       </c>
       <c r="U23" t="n">
-        <v>253.0805472469234</v>
+        <v>131.1889155888154</v>
       </c>
       <c r="V23" t="n">
         <v>338.6857412035168</v>
@@ -24274,7 +24274,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
-        <v>392.5258019886049</v>
+        <v>270.6341703304969</v>
       </c>
     </row>
     <row r="24">
@@ -24287,28 +24287,28 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C24" t="n">
-        <v>27.25605647740063</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D24" t="n">
-        <v>128.7880777047345</v>
+        <v>22.82498982274267</v>
       </c>
       <c r="E24" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F24" t="n">
-        <v>1.29585639759145</v>
+        <v>1.295856397591578</v>
       </c>
       <c r="G24" t="n">
-        <v>90.7387932757229</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>38.28796328765947</v>
+        <v>38.28796328765948</v>
       </c>
       <c r="J24" t="n">
-        <v>9.996493671227938</v>
+        <v>9.996493671227952</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>47.08138215850108</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>119.3379681607525</v>
@@ -24353,7 +24353,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y24" t="n">
-        <v>55.62944309713977</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="25">
@@ -24381,7 +24381,7 @@
         <v>165.9286346603149</v>
       </c>
       <c r="H25" t="n">
-        <v>148.2079894389679</v>
+        <v>148.207989438968</v>
       </c>
       <c r="I25" t="n">
         <v>112.4303652576383</v>
@@ -24390,7 +24390,7 @@
         <v>37.09549975836521</v>
       </c>
       <c r="K25" t="n">
-        <v>9.167801431118519</v>
+        <v>9.167801431118534</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -24405,10 +24405,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>11.76994589361098</v>
+        <v>11.76994589361099</v>
       </c>
       <c r="Q25" t="n">
-        <v>44.6459263585382</v>
+        <v>44.64592635853821</v>
       </c>
       <c r="R25" t="n">
         <v>93.75581532553738</v>
@@ -24417,7 +24417,7 @@
         <v>189.5843005223167</v>
       </c>
       <c r="T25" t="n">
-        <v>230.6150159536303</v>
+        <v>196.6746508882479</v>
       </c>
       <c r="U25" t="n">
         <v>282.5493377295417</v>
@@ -24429,7 +24429,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>197.7991539294643</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
         <v>220.8809405715231</v>
@@ -24457,13 +24457,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>285.7063085134687</v>
+        <v>350.3389083679469</v>
       </c>
       <c r="H26" t="n">
         <v>306.1645855229701</v>
       </c>
       <c r="I26" t="n">
-        <v>81.70077364567953</v>
+        <v>81.70077364567955</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,25 +24490,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>50.10311736083146</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>132.189652850835</v>
       </c>
       <c r="T26" t="n">
-        <v>93.10018522791844</v>
+        <v>214.9918168860265</v>
       </c>
       <c r="U26" t="n">
-        <v>253.0805472469234</v>
+        <v>131.1889155888155</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>216.7941095454089</v>
       </c>
       <c r="W26" t="n">
-        <v>245.3974130232874</v>
+        <v>245.3974130232875</v>
       </c>
       <c r="X26" t="n">
-        <v>278.1959298518122</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
         <v>392.5258019886049</v>
@@ -24527,25 +24527,25 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D27" t="n">
-        <v>128.7880777047345</v>
+        <v>6.896446046626565</v>
       </c>
       <c r="E27" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F27" t="n">
-        <v>1.295856397591464</v>
+        <v>1.295856397591621</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>80.00854575966318</v>
       </c>
       <c r="I27" t="n">
-        <v>38.28796328765947</v>
+        <v>38.28796328765948</v>
       </c>
       <c r="J27" t="n">
-        <v>9.996493671227938</v>
+        <v>9.996493671227952</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24569,22 +24569,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>47.08138215850108</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>119.3379681607525</v>
       </c>
       <c r="T27" t="n">
         <v>172.1231385962474</v>
       </c>
       <c r="U27" t="n">
-        <v>207.9120630020701</v>
+        <v>143.8320610185231</v>
       </c>
       <c r="V27" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W27" t="n">
-        <v>194.1095715283053</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X27" t="n">
         <v>187.4140068734885</v>
@@ -24609,7 +24609,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>120.0628589540071</v>
       </c>
       <c r="F28" t="n">
         <v>155.7526754391568</v>
@@ -24618,7 +24618,7 @@
         <v>165.9286346603149</v>
       </c>
       <c r="H28" t="n">
-        <v>148.2079894389679</v>
+        <v>148.207989438968</v>
       </c>
       <c r="I28" t="n">
         <v>112.4303652576383</v>
@@ -24627,7 +24627,7 @@
         <v>37.09549975836521</v>
       </c>
       <c r="K28" t="n">
-        <v>9.167801431118519</v>
+        <v>9.167801431118534</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -24642,10 +24642,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>11.76994589361099</v>
       </c>
       <c r="Q28" t="n">
-        <v>44.6459263585382</v>
+        <v>44.64592635853821</v>
       </c>
       <c r="R28" t="n">
         <v>93.75581532553738</v>
@@ -24654,7 +24654,7 @@
         <v>189.5843005223167</v>
       </c>
       <c r="T28" t="n">
-        <v>208.4445967818588</v>
+        <v>230.6150159536303</v>
       </c>
       <c r="U28" t="n">
         <v>282.5493377295417</v>
@@ -24688,16 +24688,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>276.6660579765129</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>290.8338624272139</v>
+        <v>290.8338624272141</v>
       </c>
       <c r="G29" t="n">
-        <v>300.2357910071153</v>
+        <v>285.7063085134689</v>
       </c>
       <c r="H29" t="n">
-        <v>306.1645855229701</v>
+        <v>198.8024363585087</v>
       </c>
       <c r="I29" t="n">
         <v>81.70077364567955</v>
@@ -24733,10 +24733,10 @@
         <v>132.189652850835</v>
       </c>
       <c r="T29" t="n">
-        <v>93.10018522791849</v>
+        <v>214.9918168860265</v>
       </c>
       <c r="U29" t="n">
-        <v>253.0805472469234</v>
+        <v>131.1889155888155</v>
       </c>
       <c r="V29" t="n">
         <v>338.6857412035168</v>
@@ -24812,19 +24812,19 @@
         <v>119.3379681607525</v>
       </c>
       <c r="T30" t="n">
-        <v>50.23150693813935</v>
+        <v>172.1231385962474</v>
       </c>
       <c r="U30" t="n">
-        <v>86.02043134396204</v>
+        <v>86.02043134396216</v>
       </c>
       <c r="V30" t="n">
-        <v>98.4229699545356</v>
+        <v>98.42296995453573</v>
       </c>
       <c r="W30" t="n">
-        <v>120.4539242435849</v>
+        <v>105.9244417499381</v>
       </c>
       <c r="X30" t="n">
-        <v>187.4140068734885</v>
+        <v>80.05185770902709</v>
       </c>
       <c r="Y30" t="n">
         <v>177.5210747552478</v>
@@ -24843,7 +24843,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>154.0767819665104</v>
+        <v>120.136416901128</v>
       </c>
       <c r="E31" t="n">
         <v>154.0032240193895</v>
@@ -24882,7 +24882,7 @@
         <v>11.76994589361099</v>
       </c>
       <c r="Q31" t="n">
-        <v>10.70556129315583</v>
+        <v>44.64592635853821</v>
       </c>
       <c r="R31" t="n">
         <v>93.75581532553738</v>
@@ -24928,10 +24928,10 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>290.8338624272141</v>
       </c>
       <c r="G32" t="n">
-        <v>407.5979401715768</v>
+        <v>350.3389083679469</v>
       </c>
       <c r="H32" t="n">
         <v>306.1645855229701</v>
@@ -24964,19 +24964,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>50.10311736083148</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>10.29802119272706</v>
+        <v>132.189652850835</v>
       </c>
       <c r="T32" t="n">
-        <v>107.6296677215651</v>
+        <v>214.9918168860265</v>
       </c>
       <c r="U32" t="n">
-        <v>131.1889155888154</v>
+        <v>253.0805472469234</v>
       </c>
       <c r="V32" t="n">
-        <v>216.7941095454088</v>
+        <v>216.7941095454089</v>
       </c>
       <c r="W32" t="n">
         <v>367.2890446813954</v>
@@ -24985,7 +24985,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>392.5258019886049</v>
+        <v>270.634170330497</v>
       </c>
     </row>
     <row r="33">
@@ -25004,16 +25004,16 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E33" t="n">
-        <v>13.19039432211321</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F33" t="n">
-        <v>1.295856397591578</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G33" t="n">
-        <v>88.18512977836754</v>
+        <v>118.0923966805212</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>80.00854575966318</v>
       </c>
       <c r="I33" t="n">
         <v>38.28796328765948</v>
@@ -25046,25 +25046,25 @@
         <v>47.08138215850109</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>119.3379681607525</v>
       </c>
       <c r="T33" t="n">
-        <v>172.1231385962474</v>
+        <v>64.76098943178596</v>
       </c>
       <c r="U33" t="n">
         <v>207.9120630020701</v>
       </c>
       <c r="V33" t="n">
-        <v>220.3146016126436</v>
+        <v>98.42296995453573</v>
       </c>
       <c r="W33" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X33" t="n">
-        <v>187.4140068734885</v>
+        <v>65.52237521538056</v>
       </c>
       <c r="Y33" t="n">
-        <v>177.5210747552478</v>
+        <v>55.62944309713994</v>
       </c>
     </row>
     <row r="34">
@@ -25077,10 +25077,10 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>134.5627016892883</v>
       </c>
       <c r="D34" t="n">
-        <v>120.136416901128</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
         <v>154.0032240193895</v>
@@ -25153,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>289.1276490898214</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>259.6950858373909</v>
+        <v>259.6950858373911</v>
       </c>
       <c r="E35" t="n">
-        <v>276.6660579765129</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
         <v>412.725494085322</v>
@@ -25174,7 +25174,7 @@
         <v>306.1645855229701</v>
       </c>
       <c r="I35" t="n">
-        <v>81.70077364567955</v>
+        <v>81.70077364567956</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,13 +25201,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>50.10311736083148</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.189652850835</v>
+        <v>10.29802119272718</v>
       </c>
       <c r="T35" t="n">
-        <v>214.9918168860265</v>
+        <v>93.10018522791871</v>
       </c>
       <c r="U35" t="n">
         <v>253.0805472469234</v>
@@ -25216,13 +25216,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>310.0300128777656</v>
       </c>
       <c r="X35" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>270.6341703304969</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -25250,13 +25250,13 @@
         <v>118.0923966805212</v>
       </c>
       <c r="H36" t="n">
-        <v>80.00854575966318</v>
+        <v>80.00854575966319</v>
       </c>
       <c r="I36" t="n">
-        <v>38.28796328765948</v>
+        <v>38.28796328765949</v>
       </c>
       <c r="J36" t="n">
-        <v>9.996493671227952</v>
+        <v>9.996493671227981</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25280,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>47.08138215850109</v>
+        <v>47.08138215850111</v>
       </c>
       <c r="S36" t="n">
         <v>119.3379681607525</v>
       </c>
       <c r="T36" t="n">
-        <v>50.23150693813936</v>
+        <v>172.1231385962474</v>
       </c>
       <c r="U36" t="n">
-        <v>86.02043134396204</v>
+        <v>86.02043134396224</v>
       </c>
       <c r="V36" t="n">
-        <v>112.9524524481825</v>
+        <v>112.9524524481823</v>
       </c>
       <c r="W36" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X36" t="n">
-        <v>65.52237521538045</v>
+        <v>65.52237521538065</v>
       </c>
       <c r="Y36" t="n">
-        <v>177.5210747552478</v>
+        <v>55.62944309714003</v>
       </c>
     </row>
     <row r="37">
@@ -25332,13 +25332,13 @@
         <v>148.207989438968</v>
       </c>
       <c r="I37" t="n">
-        <v>112.4303652576383</v>
+        <v>78.49000019225608</v>
       </c>
       <c r="J37" t="n">
-        <v>37.09549975836521</v>
+        <v>37.09549975836523</v>
       </c>
       <c r="K37" t="n">
-        <v>9.167801431118534</v>
+        <v>9.167801431118562</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -25353,13 +25353,13 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>11.76994589361099</v>
+        <v>11.76994589361102</v>
       </c>
       <c r="Q37" t="n">
-        <v>44.64592635853821</v>
+        <v>44.64592635853823</v>
       </c>
       <c r="R37" t="n">
-        <v>93.75581532553738</v>
+        <v>93.7558153255374</v>
       </c>
       <c r="S37" t="n">
         <v>189.5843005223167</v>
@@ -25371,7 +25371,7 @@
         <v>282.5493377295417</v>
       </c>
       <c r="V37" t="n">
-        <v>229.3791866620016</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
         <v>280.4970980481341</v>
@@ -25408,10 +25408,10 @@
         <v>407.5979401715768</v>
       </c>
       <c r="H38" t="n">
-        <v>198.8024363585087</v>
+        <v>306.1645855229701</v>
       </c>
       <c r="I38" t="n">
-        <v>81.70077364567955</v>
+        <v>81.70077364567956</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,25 +25438,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>50.10311736083148</v>
+        <v>50.1031173608315</v>
       </c>
       <c r="S38" t="n">
-        <v>132.189652850835</v>
+        <v>10.29802119272709</v>
       </c>
       <c r="T38" t="n">
-        <v>93.10018522791862</v>
+        <v>93.10018522791863</v>
       </c>
       <c r="U38" t="n">
         <v>253.0805472469234</v>
       </c>
       <c r="V38" t="n">
-        <v>216.7941095454089</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
         <v>245.3974130232875</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>278.1959298518124</v>
       </c>
       <c r="Y38" t="n">
         <v>392.5258019886049</v>
@@ -25472,28 +25472,28 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C39" t="n">
-        <v>149.1476881355087</v>
+        <v>27.2560564774008</v>
       </c>
       <c r="D39" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E39" t="n">
-        <v>135.0820259802211</v>
+        <v>23.92064183817311</v>
       </c>
       <c r="F39" t="n">
-        <v>9.472440416296081</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>80.00854575966318</v>
+        <v>80.00854575966319</v>
       </c>
       <c r="I39" t="n">
-        <v>38.28796328765948</v>
+        <v>38.28796328765949</v>
       </c>
       <c r="J39" t="n">
-        <v>9.996493671227952</v>
+        <v>9.996493671227981</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25517,10 +25517,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>47.08138215850109</v>
+        <v>47.08138215850111</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>119.3379681607525</v>
       </c>
       <c r="T39" t="n">
         <v>50.23150693813947</v>
@@ -25554,7 +25554,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>120.136416901128</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
         <v>154.0032240193895</v>
@@ -25572,10 +25572,10 @@
         <v>112.4303652576383</v>
       </c>
       <c r="J40" t="n">
-        <v>37.09549975836521</v>
+        <v>37.09549975836523</v>
       </c>
       <c r="K40" t="n">
-        <v>9.167801431118534</v>
+        <v>9.167801431118562</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -25590,13 +25590,13 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>11.76994589361099</v>
+        <v>11.76994589361102</v>
       </c>
       <c r="Q40" t="n">
-        <v>44.64592635853821</v>
+        <v>44.64592635853823</v>
       </c>
       <c r="R40" t="n">
-        <v>93.75581532553738</v>
+        <v>93.7558153255374</v>
       </c>
       <c r="S40" t="n">
         <v>189.5843005223167</v>
@@ -25611,7 +25611,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>246.5567329827519</v>
       </c>
       <c r="X40" t="n">
         <v>231.7395189948467</v>
@@ -25630,7 +25630,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>267.3521148239907</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
         <v>381.5867174954989</v>
@@ -25645,10 +25645,10 @@
         <v>407.5979401715768</v>
       </c>
       <c r="H41" t="n">
-        <v>184.2729538648621</v>
+        <v>306.1645855229701</v>
       </c>
       <c r="I41" t="n">
-        <v>81.70077364567955</v>
+        <v>81.70077364567956</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>50.10311736083148</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>132.189652850835</v>
@@ -25684,19 +25684,19 @@
         <v>214.9918168860265</v>
       </c>
       <c r="U41" t="n">
-        <v>131.1889155888154</v>
+        <v>253.0805472469234</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>216.794109545409</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>245.3974130232876</v>
       </c>
       <c r="X41" t="n">
-        <v>385.5580790162737</v>
+        <v>263.6664473581659</v>
       </c>
       <c r="Y41" t="n">
-        <v>285.1636528241435</v>
+        <v>335.266770184975</v>
       </c>
     </row>
     <row r="42">
@@ -25724,13 +25724,13 @@
         <v>118.0923966805212</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>80.00854575966319</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>38.28796328765949</v>
       </c>
       <c r="J42" t="n">
-        <v>9.996493671227952</v>
+        <v>9.996493671227981</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25754,25 +25754,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>47.08138215850109</v>
+        <v>47.08138215850111</v>
       </c>
       <c r="S42" t="n">
-        <v>8.380696385505857</v>
+        <v>119.3379681607525</v>
       </c>
       <c r="T42" t="n">
         <v>172.1231385962474</v>
       </c>
       <c r="U42" t="n">
-        <v>207.9120630020701</v>
+        <v>100.5499138376086</v>
       </c>
       <c r="V42" t="n">
-        <v>98.42296995453569</v>
+        <v>98.42296995453582</v>
       </c>
       <c r="W42" t="n">
-        <v>105.9244417499381</v>
+        <v>105.9244417499382</v>
       </c>
       <c r="X42" t="n">
-        <v>187.4140068734885</v>
+        <v>65.52237521538065</v>
       </c>
       <c r="Y42" t="n">
         <v>177.5210747552478</v>
@@ -25803,16 +25803,16 @@
         <v>165.9286346603149</v>
       </c>
       <c r="H43" t="n">
-        <v>114.2676243735855</v>
+        <v>148.207989438968</v>
       </c>
       <c r="I43" t="n">
         <v>112.4303652576383</v>
       </c>
       <c r="J43" t="n">
-        <v>37.09549975836521</v>
+        <v>37.09549975836523</v>
       </c>
       <c r="K43" t="n">
-        <v>9.167801431118534</v>
+        <v>9.167801431118562</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -25827,19 +25827,19 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>11.76994589361099</v>
+        <v>11.76994589361102</v>
       </c>
       <c r="Q43" t="n">
-        <v>44.64592635853821</v>
+        <v>44.64592635853823</v>
       </c>
       <c r="R43" t="n">
-        <v>93.75581532553738</v>
+        <v>93.7558153255374</v>
       </c>
       <c r="S43" t="n">
         <v>189.5843005223167</v>
       </c>
       <c r="T43" t="n">
-        <v>230.6150159536303</v>
+        <v>196.674650888248</v>
       </c>
       <c r="U43" t="n">
         <v>282.5493377295417</v>
@@ -25867,13 +25867,13 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>267.3521148239907</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>341.2986578309909</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
         <v>412.725494085322</v>
@@ -25882,7 +25882,7 @@
         <v>407.5979401715768</v>
       </c>
       <c r="H44" t="n">
-        <v>306.1645855229701</v>
+        <v>248.9055537193402</v>
       </c>
       <c r="I44" t="n">
         <v>81.70077364567955</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>10.29802119272698</v>
+        <v>10.29802119272709</v>
       </c>
       <c r="T44" t="n">
-        <v>214.9918168860265</v>
+        <v>93.1001852279186</v>
       </c>
       <c r="U44" t="n">
-        <v>253.0805472469234</v>
+        <v>131.1889155888155</v>
       </c>
       <c r="V44" t="n">
-        <v>216.7941095454088</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
         <v>367.2890446813954</v>
@@ -25946,7 +25946,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C45" t="n">
-        <v>27.25605647740069</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D45" t="n">
         <v>128.7880777047345</v>
@@ -25955,10 +25955,10 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F45" t="n">
-        <v>123.1874880556995</v>
+        <v>1.295856397591621</v>
       </c>
       <c r="G45" t="n">
-        <v>118.0923966805212</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>80.00854575966318</v>
@@ -25994,25 +25994,25 @@
         <v>47.08138215850109</v>
       </c>
       <c r="S45" t="n">
-        <v>119.3379681607525</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>172.1231385962474</v>
+        <v>58.40809095684391</v>
       </c>
       <c r="U45" t="n">
         <v>207.9120630020701</v>
       </c>
       <c r="V45" t="n">
-        <v>98.42296995453562</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W45" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X45" t="n">
-        <v>65.52237521538045</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y45" t="n">
-        <v>70.15892559078671</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="46">
@@ -26025,7 +26025,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>134.5627016892883</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
         <v>154.0767819665104</v>
@@ -26085,7 +26085,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>246.5567329827518</v>
       </c>
       <c r="X46" t="n">
         <v>231.7395189948467</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>276551.3725404201</v>
+        <v>276551.37254042</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>276551.3725404202</v>
+        <v>276551.3725404201</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>297868.3646357151</v>
+        <v>297868.364635715</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>297868.3646357151</v>
+        <v>297868.364635715</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>297868.3646357151</v>
+        <v>297868.364635715</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>297868.364635715</v>
+        <v>297868.3646357149</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>297868.364635715</v>
+        <v>297868.3646357149</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>297868.364635715</v>
+        <v>297868.3646357149</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>297868.364635715</v>
+        <v>297868.3646357149</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>47213.27763988466</v>
+        <v>47213.27763988465</v>
       </c>
       <c r="C2" t="n">
-        <v>47213.27763988464</v>
+        <v>47213.27763988465</v>
       </c>
       <c r="D2" t="n">
         <v>47213.27763988465</v>
       </c>
       <c r="E2" t="n">
-        <v>75423.10160193279</v>
+        <v>75423.10160193277</v>
       </c>
       <c r="F2" t="n">
-        <v>75423.10160193279</v>
+        <v>75423.10160193278</v>
       </c>
       <c r="G2" t="n">
-        <v>81236.82671883135</v>
+        <v>81236.82671883138</v>
       </c>
       <c r="H2" t="n">
-        <v>81236.82671883133</v>
+        <v>81236.82671883136</v>
       </c>
       <c r="I2" t="n">
-        <v>81236.82671883145</v>
+        <v>81236.82671883136</v>
       </c>
       <c r="J2" t="n">
         <v>81236.82671883136</v>
       </c>
       <c r="K2" t="n">
-        <v>81236.82671883141</v>
+        <v>81236.82671883136</v>
       </c>
       <c r="L2" t="n">
-        <v>81236.82671883141</v>
+        <v>81236.82671883136</v>
       </c>
       <c r="M2" t="n">
-        <v>81236.82671883138</v>
+        <v>81236.82671883129</v>
       </c>
       <c r="N2" t="n">
-        <v>81236.82671883139</v>
+        <v>81236.82671883132</v>
       </c>
       <c r="O2" t="n">
-        <v>81236.82671883141</v>
+        <v>81236.82671883127</v>
       </c>
       <c r="P2" t="n">
-        <v>81236.82671883132</v>
+        <v>81236.82671883136</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>125504.6429474675</v>
+        <v>125504.6429474676</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>25639.10459819503</v>
+        <v>25639.10459819506</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>23786.51649386385</v>
+        <v>23786.5164938638</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>6363.210224178132</v>
+        <v>6363.210224178095</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,22 +26426,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>69.67489617417074</v>
+        <v>69.67489617417073</v>
       </c>
       <c r="F4" t="n">
-        <v>69.67489617417077</v>
+        <v>69.67489617417075</v>
       </c>
       <c r="G4" t="n">
-        <v>89.57007674701708</v>
+        <v>89.57007674701711</v>
       </c>
       <c r="H4" t="n">
-        <v>89.57007674701715</v>
+        <v>89.57007674701711</v>
       </c>
       <c r="I4" t="n">
-        <v>89.57007674701717</v>
+        <v>89.57007674701711</v>
       </c>
       <c r="J4" t="n">
-        <v>89.57007674701717</v>
+        <v>89.57007674701711</v>
       </c>
       <c r="K4" t="n">
         <v>89.57007674701711</v>
@@ -26450,13 +26450,13 @@
         <v>89.57007674701711</v>
       </c>
       <c r="M4" t="n">
-        <v>89.57007674701711</v>
+        <v>89.570076747017</v>
       </c>
       <c r="N4" t="n">
-        <v>89.57007674701711</v>
+        <v>89.57007674701701</v>
       </c>
       <c r="O4" t="n">
-        <v>89.57007674701711</v>
+        <v>89.570076747017</v>
       </c>
       <c r="P4" t="n">
         <v>89.57007674701711</v>
@@ -26478,7 +26478,7 @@
         <v>38251.52928777246</v>
       </c>
       <c r="E5" t="n">
-        <v>13059.48785636358</v>
+        <v>13059.48785636357</v>
       </c>
       <c r="F5" t="n">
         <v>13059.48785636358</v>
@@ -26487,28 +26487,28 @@
         <v>15182.83026754882</v>
       </c>
       <c r="H5" t="n">
-        <v>15182.83026754883</v>
+        <v>15182.83026754882</v>
       </c>
       <c r="I5" t="n">
-        <v>15182.83026754883</v>
+        <v>15182.83026754882</v>
       </c>
       <c r="J5" t="n">
-        <v>15182.83026754883</v>
+        <v>15182.83026754882</v>
       </c>
       <c r="K5" t="n">
-        <v>15182.83026754883</v>
+        <v>15182.83026754882</v>
       </c>
       <c r="L5" t="n">
         <v>15182.83026754882</v>
       </c>
       <c r="M5" t="n">
-        <v>15182.83026754882</v>
+        <v>15182.83026754881</v>
       </c>
       <c r="N5" t="n">
         <v>15182.83026754882</v>
       </c>
       <c r="O5" t="n">
-        <v>15182.83026754882</v>
+        <v>15182.83026754881</v>
       </c>
       <c r="P5" t="n">
         <v>15182.83026754882</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-195427.1678303778</v>
+        <v>-196915.7344270454</v>
       </c>
       <c r="C6" t="n">
-        <v>8961.748352112183</v>
+        <v>7473.181755444521</v>
       </c>
       <c r="D6" t="n">
-        <v>8961.74835211219</v>
+        <v>7473.181755444521</v>
       </c>
       <c r="E6" t="n">
-        <v>-63210.70409807249</v>
+        <v>-64511.20520165989</v>
       </c>
       <c r="F6" t="n">
-        <v>62293.93884939505</v>
+        <v>60993.43774580769</v>
       </c>
       <c r="G6" t="n">
-        <v>40325.32177634048</v>
+        <v>39063.57884019912</v>
       </c>
       <c r="H6" t="n">
-        <v>65964.4263745355</v>
+        <v>64702.68343839417</v>
       </c>
       <c r="I6" t="n">
-        <v>65964.4263745356</v>
+        <v>64702.68343839417</v>
       </c>
       <c r="J6" t="n">
-        <v>65964.42637453553</v>
+        <v>64702.68343839417</v>
       </c>
       <c r="K6" t="n">
-        <v>65964.42637453557</v>
+        <v>64702.68343839417</v>
       </c>
       <c r="L6" t="n">
-        <v>65964.42637453557</v>
+        <v>64702.68343839417</v>
       </c>
       <c r="M6" t="n">
-        <v>42177.90988067169</v>
+        <v>40916.1669445303</v>
       </c>
       <c r="N6" t="n">
-        <v>65964.42637453556</v>
+        <v>64702.68343839412</v>
       </c>
       <c r="O6" t="n">
-        <v>59601.21615035745</v>
+        <v>58339.473214216</v>
       </c>
       <c r="P6" t="n">
-        <v>65964.42637453548</v>
+        <v>64702.68343839417</v>
       </c>
     </row>
   </sheetData>
@@ -26743,16 +26743,16 @@
         <v>212.1068480629568</v>
       </c>
       <c r="D3" t="n">
-        <v>212.1068480629568</v>
+        <v>212.1068480629567</v>
       </c>
       <c r="E3" t="n">
         <v>332.8499610521934</v>
       </c>
       <c r="F3" t="n">
-        <v>332.8499610521935</v>
+        <v>332.8499610521934</v>
       </c>
       <c r="G3" t="n">
-        <v>356.5054615933879</v>
+        <v>356.505461593388</v>
       </c>
       <c r="H3" t="n">
         <v>356.505461593388</v>
@@ -26770,13 +26770,13 @@
         <v>356.505461593388</v>
       </c>
       <c r="M3" t="n">
-        <v>356.505461593388</v>
+        <v>356.5054615933878</v>
       </c>
       <c r="N3" t="n">
-        <v>356.505461593388</v>
+        <v>356.5054615933878</v>
       </c>
       <c r="O3" t="n">
-        <v>356.505461593388</v>
+        <v>356.5054615933878</v>
       </c>
       <c r="P3" t="n">
         <v>356.505461593388</v>
@@ -26798,40 +26798,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>95.44997870766052</v>
+        <v>95.44997870766048</v>
       </c>
       <c r="F4" t="n">
-        <v>95.44997870766052</v>
+        <v>95.44997870766051</v>
       </c>
       <c r="G4" t="n">
         <v>121.8916316581079</v>
       </c>
       <c r="H4" t="n">
-        <v>121.891631658108</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="I4" t="n">
-        <v>121.8916316581081</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="J4" t="n">
-        <v>121.8916316581081</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="K4" t="n">
-        <v>121.891631658108</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="L4" t="n">
         <v>121.8916316581079</v>
       </c>
       <c r="M4" t="n">
-        <v>121.891631658108</v>
+        <v>121.8916316581078</v>
       </c>
       <c r="N4" t="n">
         <v>121.8916316581079</v>
       </c>
       <c r="O4" t="n">
+        <v>121.8916316581078</v>
+      </c>
+      <c r="P4" t="n">
         <v>121.8916316581079</v>
-      </c>
-      <c r="P4" t="n">
-        <v>121.891631658108</v>
       </c>
     </row>
   </sheetData>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>120.7431129892366</v>
+        <v>120.7431129892367</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>23.65550054119444</v>
+        <v>23.6555005411945</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>95.44997870766052</v>
+        <v>95.44997870766048</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>26.44165295044742</v>
+        <v>26.44165295044739</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>95.44997870766059</v>
+        <v>95.44997870766039</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>26.44165295044746</v>
+        <v>26.44165295044731</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>95.44997870766052</v>
+        <v>95.44997870766048</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>26.44165295044742</v>
+        <v>26.44165295044739</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31308,7 +31308,7 @@
         <v>122.618009587993</v>
       </c>
       <c r="Q5" t="n">
-        <v>92.08101864827587</v>
+        <v>92.08101864827586</v>
       </c>
       <c r="R5" t="n">
         <v>53.56284138546617</v>
@@ -31360,7 +31360,7 @@
         <v>0.4562298241354165</v>
       </c>
       <c r="H6" t="n">
-        <v>4.406219617307839</v>
+        <v>4.406219617307838</v>
       </c>
       <c r="I6" t="n">
         <v>15.70791280466237</v>
@@ -31436,7 +31436,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3824877588020532</v>
+        <v>0.3824877588020531</v>
       </c>
       <c r="H7" t="n">
         <v>3.400663891894621</v>
@@ -31457,13 +31457,13 @@
         <v>59.95669477294365</v>
       </c>
       <c r="N7" t="n">
-        <v>58.53105858104514</v>
+        <v>58.53105858104513</v>
       </c>
       <c r="O7" t="n">
-        <v>54.06290612594841</v>
+        <v>54.0629061259484</v>
       </c>
       <c r="P7" t="n">
-        <v>46.26015584638648</v>
+        <v>46.26015584638647</v>
       </c>
       <c r="Q7" t="n">
         <v>32.02813405750647</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8526908464842476</v>
+        <v>0.8526908464842475</v>
       </c>
       <c r="H8" t="n">
         <v>8.732620131556803</v>
@@ -31524,7 +31524,7 @@
         <v>32.87336385908399</v>
       </c>
       <c r="J8" t="n">
-        <v>72.37106973179249</v>
+        <v>72.37106973179247</v>
       </c>
       <c r="K8" t="n">
         <v>108.4654732634707</v>
@@ -31545,10 +31545,10 @@
         <v>122.618009587993</v>
       </c>
       <c r="Q8" t="n">
-        <v>92.08101864827587</v>
+        <v>92.08101864827586</v>
       </c>
       <c r="R8" t="n">
-        <v>53.56284138546617</v>
+        <v>53.56284138546616</v>
       </c>
       <c r="S8" t="n">
         <v>19.43069266425981</v>
@@ -31557,7 +31557,7 @@
         <v>3.732654180484796</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0682152677187398</v>
+        <v>0.06821526771873979</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,19 +31594,19 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4562298241354165</v>
+        <v>0.4562298241354164</v>
       </c>
       <c r="H9" t="n">
-        <v>4.406219617307839</v>
+        <v>4.406219617307838</v>
       </c>
       <c r="I9" t="n">
         <v>15.70791280466237</v>
       </c>
       <c r="J9" t="n">
-        <v>43.1037133407939</v>
+        <v>43.10371334079389</v>
       </c>
       <c r="K9" t="n">
-        <v>73.67111155786679</v>
+        <v>73.67111155786678</v>
       </c>
       <c r="L9" t="n">
         <v>90.06034685691823</v>
@@ -31624,7 +31624,7 @@
         <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
-        <v>58.2373368492858</v>
+        <v>58.23733684928579</v>
       </c>
       <c r="R9" t="n">
         <v>28.32626925640771</v>
@@ -31633,7 +31633,7 @@
         <v>8.474268882515295</v>
       </c>
       <c r="T9" t="n">
-        <v>1.838926352545823</v>
+        <v>1.838926352545822</v>
       </c>
       <c r="U9" t="n">
         <v>0.03001512000890899</v>
@@ -31673,34 +31673,34 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3824877588020532</v>
+        <v>0.3824877588020531</v>
       </c>
       <c r="H10" t="n">
-        <v>3.400663891894621</v>
+        <v>3.40066389189462</v>
       </c>
       <c r="I10" t="n">
         <v>11.50245005561084</v>
       </c>
       <c r="J10" t="n">
-        <v>27.04188454730516</v>
+        <v>27.04188454730515</v>
       </c>
       <c r="K10" t="n">
-        <v>44.43812324991126</v>
+        <v>44.43812324991125</v>
       </c>
       <c r="L10" t="n">
-        <v>56.86549824953435</v>
+        <v>56.86549824953434</v>
       </c>
       <c r="M10" t="n">
-        <v>59.95669477294365</v>
+        <v>59.95669477294364</v>
       </c>
       <c r="N10" t="n">
-        <v>58.53105858104514</v>
+        <v>58.53105858104513</v>
       </c>
       <c r="O10" t="n">
-        <v>54.06290612594841</v>
+        <v>54.0629061259484</v>
       </c>
       <c r="P10" t="n">
-        <v>46.26015584638648</v>
+        <v>46.26015584638647</v>
       </c>
       <c r="Q10" t="n">
         <v>32.02813405750647</v>
@@ -31715,7 +31715,7 @@
         <v>1.634265878517863</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0208629686619302</v>
+        <v>0.02086296866193019</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31852,7 +31852,7 @@
         <v>181.4032287734454</v>
       </c>
       <c r="N12" t="n">
-        <v>155.2131393140658</v>
+        <v>155.614281124784</v>
       </c>
       <c r="O12" t="n">
         <v>170.3406777094183</v>
@@ -31861,7 +31861,7 @@
         <v>136.7134113612302</v>
       </c>
       <c r="Q12" t="n">
-        <v>91.38929496663243</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>44.45117027032879</v>
@@ -32022,7 +32022,7 @@
         <v>144.4986984183922</v>
       </c>
       <c r="R14" t="n">
-        <v>84.05381453646172</v>
+        <v>84.0538145364617</v>
       </c>
       <c r="S14" t="n">
         <v>30.4917326129723</v>
@@ -32071,7 +32071,7 @@
         <v>0.715941425659435</v>
       </c>
       <c r="H15" t="n">
-        <v>6.914486926763492</v>
+        <v>6.914486926763491</v>
       </c>
       <c r="I15" t="n">
         <v>24.64973768169546</v>
@@ -32089,13 +32089,13 @@
         <v>181.4032287734454</v>
       </c>
       <c r="N15" t="n">
-        <v>155.614281124784</v>
+        <v>180.8220915618272</v>
       </c>
       <c r="O15" t="n">
         <v>170.3406777094183</v>
       </c>
       <c r="P15" t="n">
-        <v>136.7134113612302</v>
+        <v>111.505600924187</v>
       </c>
       <c r="Q15" t="n">
         <v>90.98815315591399</v>
@@ -32110,7 +32110,7 @@
         <v>2.885746360443072</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04710140958285759</v>
+        <v>0.04710140958285758</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6002212412416603</v>
+        <v>0.6002212412416602</v>
       </c>
       <c r="H16" t="n">
-        <v>5.33651249031222</v>
+        <v>5.336512490312219</v>
       </c>
       <c r="I16" t="n">
         <v>18.0502896911583</v>
@@ -32162,16 +32162,16 @@
         <v>69.73479511880379</v>
       </c>
       <c r="L16" t="n">
-        <v>89.23652890241922</v>
+        <v>89.23652890241921</v>
       </c>
       <c r="M16" t="n">
         <v>94.08740784299951</v>
       </c>
       <c r="N16" t="n">
-        <v>91.85021958018977</v>
+        <v>91.85021958018976</v>
       </c>
       <c r="O16" t="n">
-        <v>84.83854417113943</v>
+        <v>84.83854417113942</v>
       </c>
       <c r="P16" t="n">
         <v>72.5940308498095</v>
@@ -32186,7 +32186,7 @@
         <v>10.46021926782057</v>
       </c>
       <c r="T16" t="n">
-        <v>2.564581667123457</v>
+        <v>2.564581667123456</v>
       </c>
       <c r="U16" t="n">
         <v>0.03273934043136333</v>
@@ -32232,7 +32232,7 @@
         <v>14.67763440620415</v>
       </c>
       <c r="I17" t="n">
-        <v>55.25297209278026</v>
+        <v>55.25297209278027</v>
       </c>
       <c r="J17" t="n">
         <v>121.6400217926103</v>
@@ -32244,13 +32244,13 @@
         <v>226.167781428738</v>
       </c>
       <c r="M17" t="n">
-        <v>251.6552347055677</v>
+        <v>251.6552347055678</v>
       </c>
       <c r="N17" t="n">
-        <v>255.7272795005515</v>
+        <v>255.7272795005516</v>
       </c>
       <c r="O17" t="n">
-        <v>241.4760184604741</v>
+        <v>241.4760184604742</v>
       </c>
       <c r="P17" t="n">
         <v>206.0941950108791</v>
@@ -32259,16 +32259,16 @@
         <v>154.768157449821</v>
       </c>
       <c r="R17" t="n">
-        <v>90.02748221835439</v>
+        <v>90.02748221835441</v>
       </c>
       <c r="S17" t="n">
         <v>32.65876665752494</v>
       </c>
       <c r="T17" t="n">
-        <v>6.273779530150976</v>
+        <v>6.273779530150977</v>
       </c>
       <c r="U17" t="n">
-        <v>0.114655022824004</v>
+        <v>0.1146550228240041</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7668230683329476</v>
+        <v>0.7668230683329478</v>
       </c>
       <c r="H18" t="n">
-        <v>7.40589647574189</v>
+        <v>7.405896475741891</v>
       </c>
       <c r="I18" t="n">
-        <v>26.40158371234052</v>
+        <v>26.40158371234053</v>
       </c>
       <c r="J18" t="n">
-        <v>72.44796366210538</v>
+        <v>72.44796366210539</v>
       </c>
       <c r="K18" t="n">
         <v>123.8251092404129</v>
@@ -32332,22 +32332,22 @@
         <v>182.4467148590237</v>
       </c>
       <c r="P18" t="n">
-        <v>146.4295734608766</v>
+        <v>146.4295734608767</v>
       </c>
       <c r="Q18" t="n">
-        <v>97.88429202088673</v>
+        <v>97.88429202088646</v>
       </c>
       <c r="R18" t="n">
-        <v>47.61029541807548</v>
+        <v>47.61029541807549</v>
       </c>
       <c r="S18" t="n">
         <v>14.24340216837733</v>
       </c>
       <c r="T18" t="n">
-        <v>3.090835086833239</v>
+        <v>3.09083508683324</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05044888607453605</v>
+        <v>0.05044888607453606</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,34 +32387,34 @@
         <v>0.6428787012339782</v>
       </c>
       <c r="H19" t="n">
-        <v>5.715776089153009</v>
+        <v>5.71577608915301</v>
       </c>
       <c r="I19" t="n">
         <v>19.33311585165455</v>
       </c>
       <c r="J19" t="n">
-        <v>45.45152417724225</v>
+        <v>45.45152417724226</v>
       </c>
       <c r="K19" t="n">
-        <v>74.69081637972944</v>
+        <v>74.69081637972945</v>
       </c>
       <c r="L19" t="n">
-        <v>95.57852981800437</v>
+        <v>95.57852981800438</v>
       </c>
       <c r="M19" t="n">
         <v>100.7741585943408</v>
       </c>
       <c r="N19" t="n">
-        <v>98.37797434428693</v>
+        <v>98.37797434428694</v>
       </c>
       <c r="O19" t="n">
-        <v>90.86798224350814</v>
+        <v>90.86798224350815</v>
       </c>
       <c r="P19" t="n">
-        <v>77.75325673833493</v>
+        <v>77.75325673833494</v>
       </c>
       <c r="Q19" t="n">
-        <v>53.83232470060157</v>
+        <v>53.83232470060158</v>
       </c>
       <c r="R19" t="n">
         <v>28.90616414821141</v>
@@ -32426,7 +32426,7 @@
         <v>2.746845359817906</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03506611097639885</v>
+        <v>0.03506611097639886</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,7 +32469,7 @@
         <v>14.67763440620415</v>
       </c>
       <c r="I20" t="n">
-        <v>55.25297209278028</v>
+        <v>55.25297209278027</v>
       </c>
       <c r="J20" t="n">
         <v>121.6400217926103</v>
@@ -32490,19 +32490,19 @@
         <v>241.4760184604742</v>
       </c>
       <c r="P20" t="n">
-        <v>206.0941950108792</v>
+        <v>206.0941950108791</v>
       </c>
       <c r="Q20" t="n">
         <v>154.768157449821</v>
       </c>
       <c r="R20" t="n">
-        <v>90.02748221835442</v>
+        <v>90.02748221835441</v>
       </c>
       <c r="S20" t="n">
-        <v>32.65876665752495</v>
+        <v>32.65876665752494</v>
       </c>
       <c r="T20" t="n">
-        <v>6.273779530150978</v>
+        <v>6.273779530150977</v>
       </c>
       <c r="U20" t="n">
         <v>0.1146550228240041</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7668230683329479</v>
+        <v>0.7668230683329478</v>
       </c>
       <c r="H21" t="n">
-        <v>7.405896475741892</v>
+        <v>7.405896475741891</v>
       </c>
       <c r="I21" t="n">
         <v>26.40158371234053</v>
       </c>
       <c r="J21" t="n">
-        <v>72.44796366210541</v>
+        <v>72.44796366210539</v>
       </c>
       <c r="K21" t="n">
         <v>123.8251092404129</v>
@@ -32560,22 +32560,22 @@
         <v>166.4981403413271</v>
       </c>
       <c r="M21" t="n">
-        <v>194.2954765683965</v>
+        <v>194.2954765683964</v>
       </c>
       <c r="N21" t="n">
         <v>199.4378996889275</v>
       </c>
       <c r="O21" t="n">
-        <v>182.4467148590238</v>
+        <v>182.4467148590237</v>
       </c>
       <c r="P21" t="n">
-        <v>146.4295734608769</v>
+        <v>146.4295734608767</v>
       </c>
       <c r="Q21" t="n">
-        <v>97.88429202088648</v>
+        <v>97.88429202088651</v>
       </c>
       <c r="R21" t="n">
-        <v>47.6102954180755</v>
+        <v>47.61029541807549</v>
       </c>
       <c r="S21" t="n">
         <v>14.24340216837733</v>
@@ -32621,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6428787012339783</v>
+        <v>0.6428787012339782</v>
       </c>
       <c r="H22" t="n">
-        <v>5.715776089153011</v>
+        <v>5.71577608915301</v>
       </c>
       <c r="I22" t="n">
         <v>19.33311585165455</v>
@@ -32633,34 +32633,34 @@
         <v>45.45152417724226</v>
       </c>
       <c r="K22" t="n">
-        <v>74.69081637972947</v>
+        <v>74.69081637972945</v>
       </c>
       <c r="L22" t="n">
-        <v>95.5785298180044</v>
+        <v>95.57852981800438</v>
       </c>
       <c r="M22" t="n">
         <v>100.7741585943408</v>
       </c>
       <c r="N22" t="n">
-        <v>98.37797434428695</v>
+        <v>98.37797434428694</v>
       </c>
       <c r="O22" t="n">
-        <v>90.86798224350817</v>
+        <v>90.86798224350815</v>
       </c>
       <c r="P22" t="n">
-        <v>77.75325673833495</v>
+        <v>77.75325673833494</v>
       </c>
       <c r="Q22" t="n">
-        <v>53.83232470060159</v>
+        <v>53.83232470060158</v>
       </c>
       <c r="R22" t="n">
-        <v>28.90616414821142</v>
+        <v>28.90616414821141</v>
       </c>
       <c r="S22" t="n">
         <v>11.20362245695942</v>
       </c>
       <c r="T22" t="n">
-        <v>2.746845359817907</v>
+        <v>2.746845359817906</v>
       </c>
       <c r="U22" t="n">
         <v>0.03506611097639886</v>
@@ -32706,7 +32706,7 @@
         <v>14.67763440620415</v>
       </c>
       <c r="I23" t="n">
-        <v>55.25297209278028</v>
+        <v>55.25297209278027</v>
       </c>
       <c r="J23" t="n">
         <v>121.6400217926103</v>
@@ -32727,19 +32727,19 @@
         <v>241.4760184604742</v>
       </c>
       <c r="P23" t="n">
-        <v>206.0941950108792</v>
+        <v>206.0941950108791</v>
       </c>
       <c r="Q23" t="n">
         <v>154.768157449821</v>
       </c>
       <c r="R23" t="n">
-        <v>90.02748221835442</v>
+        <v>90.02748221835441</v>
       </c>
       <c r="S23" t="n">
-        <v>32.65876665752495</v>
+        <v>32.65876665752494</v>
       </c>
       <c r="T23" t="n">
-        <v>6.273779530150978</v>
+        <v>6.273779530150977</v>
       </c>
       <c r="U23" t="n">
         <v>0.1146550228240041</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7668230683329479</v>
+        <v>0.7668230683329478</v>
       </c>
       <c r="H24" t="n">
-        <v>7.405896475741892</v>
+        <v>7.405896475741891</v>
       </c>
       <c r="I24" t="n">
         <v>26.40158371234053</v>
       </c>
       <c r="J24" t="n">
-        <v>72.44796366210541</v>
+        <v>72.44796366210539</v>
       </c>
       <c r="K24" t="n">
         <v>123.8251092404129</v>
@@ -32797,7 +32797,7 @@
         <v>166.4981403413271</v>
       </c>
       <c r="M24" t="n">
-        <v>194.2954765683965</v>
+        <v>194.2954765683964</v>
       </c>
       <c r="N24" t="n">
         <v>199.4378996889275</v>
@@ -32809,10 +32809,10 @@
         <v>146.4295734608767</v>
       </c>
       <c r="Q24" t="n">
-        <v>97.8842920208869</v>
+        <v>97.88429202088646</v>
       </c>
       <c r="R24" t="n">
-        <v>47.6102954180755</v>
+        <v>47.61029541807549</v>
       </c>
       <c r="S24" t="n">
         <v>14.24340216837733</v>
@@ -32858,10 +32858,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6428787012339783</v>
+        <v>0.6428787012339782</v>
       </c>
       <c r="H25" t="n">
-        <v>5.715776089153011</v>
+        <v>5.71577608915301</v>
       </c>
       <c r="I25" t="n">
         <v>19.33311585165455</v>
@@ -32870,34 +32870,34 @@
         <v>45.45152417724226</v>
       </c>
       <c r="K25" t="n">
-        <v>74.69081637972947</v>
+        <v>74.69081637972945</v>
       </c>
       <c r="L25" t="n">
-        <v>95.5785298180044</v>
+        <v>95.57852981800438</v>
       </c>
       <c r="M25" t="n">
         <v>100.7741585943408</v>
       </c>
       <c r="N25" t="n">
-        <v>98.37797434428695</v>
+        <v>98.37797434428694</v>
       </c>
       <c r="O25" t="n">
-        <v>90.86798224350817</v>
+        <v>90.86798224350815</v>
       </c>
       <c r="P25" t="n">
-        <v>77.75325673833495</v>
+        <v>77.75325673833494</v>
       </c>
       <c r="Q25" t="n">
-        <v>53.83232470060159</v>
+        <v>53.83232470060158</v>
       </c>
       <c r="R25" t="n">
-        <v>28.90616414821142</v>
+        <v>28.90616414821141</v>
       </c>
       <c r="S25" t="n">
         <v>11.20362245695942</v>
       </c>
       <c r="T25" t="n">
-        <v>2.746845359817907</v>
+        <v>2.746845359817906</v>
       </c>
       <c r="U25" t="n">
         <v>0.03506611097639886</v>
@@ -32943,7 +32943,7 @@
         <v>14.67763440620415</v>
       </c>
       <c r="I26" t="n">
-        <v>55.25297209278028</v>
+        <v>55.25297209278027</v>
       </c>
       <c r="J26" t="n">
         <v>121.6400217926103</v>
@@ -32964,19 +32964,19 @@
         <v>241.4760184604742</v>
       </c>
       <c r="P26" t="n">
-        <v>206.0941950108792</v>
+        <v>206.0941950108791</v>
       </c>
       <c r="Q26" t="n">
         <v>154.768157449821</v>
       </c>
       <c r="R26" t="n">
-        <v>90.02748221835442</v>
+        <v>90.02748221835441</v>
       </c>
       <c r="S26" t="n">
-        <v>32.65876665752495</v>
+        <v>32.65876665752494</v>
       </c>
       <c r="T26" t="n">
-        <v>6.273779530150978</v>
+        <v>6.273779530150977</v>
       </c>
       <c r="U26" t="n">
         <v>0.1146550228240041</v>
@@ -33016,40 +33016,40 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7668230683329479</v>
+        <v>0.7668230683329478</v>
       </c>
       <c r="H27" t="n">
-        <v>7.405896475741892</v>
+        <v>7.405896475741891</v>
       </c>
       <c r="I27" t="n">
         <v>26.40158371234053</v>
       </c>
       <c r="J27" t="n">
-        <v>72.44796366210541</v>
+        <v>72.44796366210539</v>
       </c>
       <c r="K27" t="n">
-        <v>123.8251092404132</v>
+        <v>123.8251092404129</v>
       </c>
       <c r="L27" t="n">
         <v>166.4981403413271</v>
       </c>
       <c r="M27" t="n">
-        <v>194.2954765683965</v>
+        <v>194.2954765683964</v>
       </c>
       <c r="N27" t="n">
         <v>199.4378996889275</v>
       </c>
       <c r="O27" t="n">
-        <v>182.4467148590238</v>
+        <v>182.4467148590237</v>
       </c>
       <c r="P27" t="n">
         <v>146.4295734608767</v>
       </c>
       <c r="Q27" t="n">
-        <v>97.88429202088648</v>
+        <v>97.88429202088646</v>
       </c>
       <c r="R27" t="n">
-        <v>47.6102954180755</v>
+        <v>47.61029541807549</v>
       </c>
       <c r="S27" t="n">
         <v>14.24340216837733</v>
@@ -33095,10 +33095,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6428787012339783</v>
+        <v>0.6428787012339782</v>
       </c>
       <c r="H28" t="n">
-        <v>5.715776089153011</v>
+        <v>5.71577608915301</v>
       </c>
       <c r="I28" t="n">
         <v>19.33311585165455</v>
@@ -33107,34 +33107,34 @@
         <v>45.45152417724226</v>
       </c>
       <c r="K28" t="n">
-        <v>74.69081637972947</v>
+        <v>74.69081637972945</v>
       </c>
       <c r="L28" t="n">
-        <v>95.5785298180044</v>
+        <v>95.57852981800438</v>
       </c>
       <c r="M28" t="n">
         <v>100.7741585943408</v>
       </c>
       <c r="N28" t="n">
-        <v>98.37797434428695</v>
+        <v>98.37797434428694</v>
       </c>
       <c r="O28" t="n">
-        <v>90.86798224350817</v>
+        <v>90.86798224350815</v>
       </c>
       <c r="P28" t="n">
-        <v>77.75325673833495</v>
+        <v>77.75325673833494</v>
       </c>
       <c r="Q28" t="n">
-        <v>53.83232470060159</v>
+        <v>53.83232470060158</v>
       </c>
       <c r="R28" t="n">
-        <v>28.90616414821142</v>
+        <v>28.90616414821141</v>
       </c>
       <c r="S28" t="n">
         <v>11.20362245695942</v>
       </c>
       <c r="T28" t="n">
-        <v>2.746845359817907</v>
+        <v>2.746845359817906</v>
       </c>
       <c r="U28" t="n">
         <v>0.03506611097639886</v>
@@ -33502,7 +33502,7 @@
         <v>72.44796366210539</v>
       </c>
       <c r="K33" t="n">
-        <v>123.825109240413</v>
+        <v>123.8251092404129</v>
       </c>
       <c r="L33" t="n">
         <v>166.4981403413271</v>
@@ -33654,43 +33654,43 @@
         <v>14.67763440620415</v>
       </c>
       <c r="I35" t="n">
-        <v>55.25297209278027</v>
+        <v>55.25297209278025</v>
       </c>
       <c r="J35" t="n">
         <v>121.6400217926103</v>
       </c>
       <c r="K35" t="n">
-        <v>182.3068607443615</v>
+        <v>182.3068607443614</v>
       </c>
       <c r="L35" t="n">
-        <v>226.167781428738</v>
+        <v>226.1677814287379</v>
       </c>
       <c r="M35" t="n">
-        <v>251.6552347055678</v>
+        <v>251.6552347055677</v>
       </c>
       <c r="N35" t="n">
-        <v>255.7272795005516</v>
+        <v>255.7272795005515</v>
       </c>
       <c r="O35" t="n">
-        <v>241.4760184604742</v>
+        <v>241.4760184604741</v>
       </c>
       <c r="P35" t="n">
-        <v>206.0941950108791</v>
+        <v>206.094195010879</v>
       </c>
       <c r="Q35" t="n">
-        <v>154.768157449821</v>
+        <v>154.7681574498209</v>
       </c>
       <c r="R35" t="n">
-        <v>90.02748221835441</v>
+        <v>90.02748221835438</v>
       </c>
       <c r="S35" t="n">
         <v>32.65876665752494</v>
       </c>
       <c r="T35" t="n">
-        <v>6.273779530150977</v>
+        <v>6.273779530150975</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1146550228240041</v>
+        <v>0.114655022824004</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7668230683329478</v>
+        <v>0.7668230683329474</v>
       </c>
       <c r="H36" t="n">
-        <v>7.405896475741891</v>
+        <v>7.405896475741889</v>
       </c>
       <c r="I36" t="n">
-        <v>26.40158371234053</v>
+        <v>26.40158371234052</v>
       </c>
       <c r="J36" t="n">
-        <v>72.44796366210539</v>
+        <v>72.44796366210537</v>
       </c>
       <c r="K36" t="n">
-        <v>123.8251092404129</v>
+        <v>123.8251092404128</v>
       </c>
       <c r="L36" t="n">
         <v>166.4981403413271</v>
       </c>
       <c r="M36" t="n">
-        <v>194.2954765683964</v>
+        <v>194.2954765683963</v>
       </c>
       <c r="N36" t="n">
-        <v>199.4378996889275</v>
+        <v>199.4378996889274</v>
       </c>
       <c r="O36" t="n">
         <v>182.4467148590237</v>
       </c>
       <c r="P36" t="n">
-        <v>146.4295734608767</v>
+        <v>146.4295734608766</v>
       </c>
       <c r="Q36" t="n">
-        <v>97.88429202088646</v>
+        <v>97.88429202088639</v>
       </c>
       <c r="R36" t="n">
-        <v>47.61029541807549</v>
+        <v>47.61029541807547</v>
       </c>
       <c r="S36" t="n">
         <v>14.24340216837733</v>
       </c>
       <c r="T36" t="n">
-        <v>3.09083508683324</v>
+        <v>3.090835086833239</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05044888607453606</v>
+        <v>0.05044888607453604</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6428787012339782</v>
+        <v>0.6428787012339781</v>
       </c>
       <c r="H37" t="n">
-        <v>5.71577608915301</v>
+        <v>5.715776089153008</v>
       </c>
       <c r="I37" t="n">
-        <v>19.33311585165455</v>
+        <v>19.33311585165454</v>
       </c>
       <c r="J37" t="n">
-        <v>45.45152417724226</v>
+        <v>45.45152417724224</v>
       </c>
       <c r="K37" t="n">
-        <v>74.69081637972945</v>
+        <v>74.69081637972943</v>
       </c>
       <c r="L37" t="n">
-        <v>95.57852981800438</v>
+        <v>95.57852981800436</v>
       </c>
       <c r="M37" t="n">
-        <v>100.7741585943408</v>
+        <v>100.7741585943407</v>
       </c>
       <c r="N37" t="n">
-        <v>98.37797434428694</v>
+        <v>98.3779743442869</v>
       </c>
       <c r="O37" t="n">
-        <v>90.86798224350815</v>
+        <v>90.86798224350812</v>
       </c>
       <c r="P37" t="n">
-        <v>77.75325673833494</v>
+        <v>77.75325673833491</v>
       </c>
       <c r="Q37" t="n">
-        <v>53.83232470060158</v>
+        <v>53.83232470060156</v>
       </c>
       <c r="R37" t="n">
         <v>28.90616414821141</v>
       </c>
       <c r="S37" t="n">
-        <v>11.20362245695942</v>
+        <v>11.20362245695941</v>
       </c>
       <c r="T37" t="n">
-        <v>2.746845359817906</v>
+        <v>2.746845359817905</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03506611097639886</v>
+        <v>0.03506611097639884</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33891,43 +33891,43 @@
         <v>14.67763440620415</v>
       </c>
       <c r="I38" t="n">
-        <v>55.25297209278027</v>
+        <v>55.25297209278025</v>
       </c>
       <c r="J38" t="n">
         <v>121.6400217926103</v>
       </c>
       <c r="K38" t="n">
-        <v>182.3068607443615</v>
+        <v>182.3068607443614</v>
       </c>
       <c r="L38" t="n">
-        <v>226.167781428738</v>
+        <v>226.1677814287379</v>
       </c>
       <c r="M38" t="n">
-        <v>251.6552347055678</v>
+        <v>251.6552347055677</v>
       </c>
       <c r="N38" t="n">
-        <v>255.7272795005516</v>
+        <v>255.7272795005515</v>
       </c>
       <c r="O38" t="n">
-        <v>241.4760184604742</v>
+        <v>241.4760184604741</v>
       </c>
       <c r="P38" t="n">
-        <v>206.0941950108791</v>
+        <v>206.094195010879</v>
       </c>
       <c r="Q38" t="n">
-        <v>154.768157449821</v>
+        <v>154.7681574498209</v>
       </c>
       <c r="R38" t="n">
-        <v>90.02748221835441</v>
+        <v>90.02748221835438</v>
       </c>
       <c r="S38" t="n">
         <v>32.65876665752494</v>
       </c>
       <c r="T38" t="n">
-        <v>6.273779530150977</v>
+        <v>6.273779530150975</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1146550228240041</v>
+        <v>0.114655022824004</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7668230683329478</v>
+        <v>0.7668230683329474</v>
       </c>
       <c r="H39" t="n">
-        <v>7.405896475741891</v>
+        <v>7.405896475741889</v>
       </c>
       <c r="I39" t="n">
-        <v>26.40158371234053</v>
+        <v>26.40158371234052</v>
       </c>
       <c r="J39" t="n">
-        <v>72.44796366210539</v>
+        <v>72.44796366210537</v>
       </c>
       <c r="K39" t="n">
-        <v>123.8251092404129</v>
+        <v>123.8251092404128</v>
       </c>
       <c r="L39" t="n">
         <v>166.4981403413271</v>
       </c>
       <c r="M39" t="n">
-        <v>194.2954765683964</v>
+        <v>194.2954765683963</v>
       </c>
       <c r="N39" t="n">
-        <v>199.4378996889275</v>
+        <v>199.4378996889274</v>
       </c>
       <c r="O39" t="n">
         <v>182.4467148590237</v>
       </c>
       <c r="P39" t="n">
-        <v>146.4295734608767</v>
+        <v>146.4295734608766</v>
       </c>
       <c r="Q39" t="n">
-        <v>97.88429202088646</v>
+        <v>97.88429202088642</v>
       </c>
       <c r="R39" t="n">
-        <v>47.61029541807549</v>
+        <v>47.61029541807547</v>
       </c>
       <c r="S39" t="n">
         <v>14.24340216837733</v>
       </c>
       <c r="T39" t="n">
-        <v>3.09083508683324</v>
+        <v>3.090835086833239</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05044888607453606</v>
+        <v>0.05044888607453604</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6428787012339782</v>
+        <v>0.6428787012339781</v>
       </c>
       <c r="H40" t="n">
-        <v>5.71577608915301</v>
+        <v>5.715776089153008</v>
       </c>
       <c r="I40" t="n">
-        <v>19.33311585165455</v>
+        <v>19.33311585165454</v>
       </c>
       <c r="J40" t="n">
-        <v>45.45152417724226</v>
+        <v>45.45152417724224</v>
       </c>
       <c r="K40" t="n">
-        <v>74.69081637972945</v>
+        <v>74.69081637972943</v>
       </c>
       <c r="L40" t="n">
-        <v>95.57852981800438</v>
+        <v>95.57852981800436</v>
       </c>
       <c r="M40" t="n">
-        <v>100.7741585943408</v>
+        <v>100.7741585943407</v>
       </c>
       <c r="N40" t="n">
-        <v>98.37797434428694</v>
+        <v>98.3779743442869</v>
       </c>
       <c r="O40" t="n">
-        <v>90.86798224350815</v>
+        <v>90.86798224350812</v>
       </c>
       <c r="P40" t="n">
-        <v>77.75325673833494</v>
+        <v>77.75325673833491</v>
       </c>
       <c r="Q40" t="n">
-        <v>53.83232470060158</v>
+        <v>53.83232470060156</v>
       </c>
       <c r="R40" t="n">
         <v>28.90616414821141</v>
       </c>
       <c r="S40" t="n">
-        <v>11.20362245695942</v>
+        <v>11.20362245695941</v>
       </c>
       <c r="T40" t="n">
-        <v>2.746845359817906</v>
+        <v>2.746845359817905</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03506611097639886</v>
+        <v>0.03506611097639884</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34128,43 +34128,43 @@
         <v>14.67763440620415</v>
       </c>
       <c r="I41" t="n">
-        <v>55.25297209278027</v>
+        <v>55.25297209278025</v>
       </c>
       <c r="J41" t="n">
         <v>121.6400217926103</v>
       </c>
       <c r="K41" t="n">
-        <v>182.3068607443615</v>
+        <v>182.3068607443614</v>
       </c>
       <c r="L41" t="n">
-        <v>226.167781428738</v>
+        <v>226.1677814287379</v>
       </c>
       <c r="M41" t="n">
-        <v>251.6552347055678</v>
+        <v>251.6552347055677</v>
       </c>
       <c r="N41" t="n">
-        <v>255.7272795005516</v>
+        <v>255.7272795005515</v>
       </c>
       <c r="O41" t="n">
-        <v>241.4760184604742</v>
+        <v>241.4760184604741</v>
       </c>
       <c r="P41" t="n">
-        <v>206.0941950108791</v>
+        <v>206.094195010879</v>
       </c>
       <c r="Q41" t="n">
-        <v>154.768157449821</v>
+        <v>154.7681574498209</v>
       </c>
       <c r="R41" t="n">
-        <v>90.02748221835441</v>
+        <v>90.02748221835438</v>
       </c>
       <c r="S41" t="n">
         <v>32.65876665752494</v>
       </c>
       <c r="T41" t="n">
-        <v>6.273779530150977</v>
+        <v>6.273779530150975</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1146550228240041</v>
+        <v>0.114655022824004</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7668230683329478</v>
+        <v>0.7668230683329474</v>
       </c>
       <c r="H42" t="n">
-        <v>7.405896475741891</v>
+        <v>7.405896475741889</v>
       </c>
       <c r="I42" t="n">
-        <v>26.40158371234053</v>
+        <v>26.40158371234052</v>
       </c>
       <c r="J42" t="n">
-        <v>72.44796366210539</v>
+        <v>72.44796366210537</v>
       </c>
       <c r="K42" t="n">
-        <v>123.8251092404129</v>
+        <v>123.8251092404128</v>
       </c>
       <c r="L42" t="n">
         <v>166.4981403413271</v>
       </c>
       <c r="M42" t="n">
-        <v>194.2954765683964</v>
+        <v>194.2954765683963</v>
       </c>
       <c r="N42" t="n">
-        <v>199.4378996889275</v>
+        <v>199.4378996889274</v>
       </c>
       <c r="O42" t="n">
         <v>182.4467148590237</v>
       </c>
       <c r="P42" t="n">
-        <v>146.4295734608767</v>
+        <v>146.4295734608766</v>
       </c>
       <c r="Q42" t="n">
-        <v>97.88429202088646</v>
+        <v>97.88429202088642</v>
       </c>
       <c r="R42" t="n">
-        <v>47.61029541807549</v>
+        <v>47.61029541807547</v>
       </c>
       <c r="S42" t="n">
         <v>14.24340216837733</v>
       </c>
       <c r="T42" t="n">
-        <v>3.09083508683324</v>
+        <v>3.090835086833239</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05044888607453606</v>
+        <v>0.05044888607453604</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6428787012339782</v>
+        <v>0.6428787012339781</v>
       </c>
       <c r="H43" t="n">
-        <v>5.71577608915301</v>
+        <v>5.715776089153008</v>
       </c>
       <c r="I43" t="n">
-        <v>19.33311585165455</v>
+        <v>19.33311585165454</v>
       </c>
       <c r="J43" t="n">
-        <v>45.45152417724226</v>
+        <v>45.45152417724224</v>
       </c>
       <c r="K43" t="n">
-        <v>74.69081637972945</v>
+        <v>74.69081637972943</v>
       </c>
       <c r="L43" t="n">
-        <v>95.57852981800438</v>
+        <v>95.57852981800436</v>
       </c>
       <c r="M43" t="n">
-        <v>100.7741585943408</v>
+        <v>100.7741585943407</v>
       </c>
       <c r="N43" t="n">
-        <v>98.37797434428694</v>
+        <v>98.3779743442869</v>
       </c>
       <c r="O43" t="n">
-        <v>90.86798224350815</v>
+        <v>90.86798224350812</v>
       </c>
       <c r="P43" t="n">
-        <v>77.75325673833494</v>
+        <v>77.75325673833491</v>
       </c>
       <c r="Q43" t="n">
-        <v>53.83232470060158</v>
+        <v>53.83232470060156</v>
       </c>
       <c r="R43" t="n">
         <v>28.90616414821141</v>
       </c>
       <c r="S43" t="n">
-        <v>11.20362245695942</v>
+        <v>11.20362245695941</v>
       </c>
       <c r="T43" t="n">
-        <v>2.746845359817906</v>
+        <v>2.746845359817905</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03506611097639886</v>
+        <v>0.03506611097639884</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -35500,7 +35500,7 @@
         <v>89.01610672413348</v>
       </c>
       <c r="N12" t="n">
-        <v>69.84102645989908</v>
+        <v>70.24216827061734</v>
       </c>
       <c r="O12" t="n">
         <v>77.65311882052937</v>
@@ -35509,7 +35509,7 @@
         <v>49.6300465419155</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.4011418107184426</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35658,13 +35658,13 @@
         <v>85.23189603485952</v>
       </c>
       <c r="N14" t="n">
-        <v>89.640305347424</v>
+        <v>89.64030534742398</v>
       </c>
       <c r="O14" t="n">
-        <v>75.88932388337201</v>
+        <v>75.88932388337199</v>
       </c>
       <c r="P14" t="n">
-        <v>42.1176098917652</v>
+        <v>42.11760989176517</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35731,19 +35731,19 @@
         <v>26.01190444080446</v>
       </c>
       <c r="L15" t="n">
-        <v>65.39000523637272</v>
+        <v>65.39000523637269</v>
       </c>
       <c r="M15" t="n">
         <v>89.01610672413351</v>
       </c>
       <c r="N15" t="n">
-        <v>70.24216827061734</v>
+        <v>95.44997870766051</v>
       </c>
       <c r="O15" t="n">
-        <v>77.6531188205294</v>
+        <v>77.65311882052937</v>
       </c>
       <c r="P15" t="n">
-        <v>49.63004654191553</v>
+        <v>24.42223610487239</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35810,13 +35810,13 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1.561489319614338</v>
+        <v>1.561489319614324</v>
       </c>
       <c r="M16" t="n">
         <v>3.785648277056239</v>
       </c>
       <c r="N16" t="n">
-        <v>8.854615677788203</v>
+        <v>8.854615677788189</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>3.960183850264201</v>
+        <v>3.960183850264215</v>
       </c>
       <c r="K17" t="n">
-        <v>39.24845756512411</v>
+        <v>39.24845756512414</v>
       </c>
       <c r="L17" t="n">
-        <v>72.91961169824626</v>
+        <v>72.91961169824631</v>
       </c>
       <c r="M17" t="n">
         <v>101.9301831078405</v>
       </c>
       <c r="N17" t="n">
-        <v>106.6087881627674</v>
+        <v>106.6087881627675</v>
       </c>
       <c r="O17" t="n">
-        <v>91.91218103637772</v>
+        <v>91.91218103637777</v>
       </c>
       <c r="P17" t="n">
-        <v>55.79274776995388</v>
+        <v>55.79274776995393</v>
       </c>
       <c r="Q17" t="n">
-        <v>10.2694590314288</v>
+        <v>10.26945903142882</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35965,10 +35965,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>34.22817390707951</v>
+        <v>34.22817390707954</v>
       </c>
       <c r="L18" t="n">
-        <v>76.43779348440886</v>
+        <v>76.43779348440889</v>
       </c>
       <c r="M18" t="n">
         <v>101.9083545190845</v>
@@ -35977,13 +35977,13 @@
         <v>114.0657868347608</v>
       </c>
       <c r="O18" t="n">
-        <v>89.75915597013481</v>
+        <v>89.75915597013484</v>
       </c>
       <c r="P18" t="n">
-        <v>59.34620864156199</v>
+        <v>59.34620864156201</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.896138864972743</v>
+        <v>6.896138864972471</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36047,16 +36047,16 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>7.903490235199484</v>
+        <v>7.903490235199499</v>
       </c>
       <c r="M19" t="n">
-        <v>10.47239902839749</v>
+        <v>10.4723990283975</v>
       </c>
       <c r="N19" t="n">
-        <v>15.38237044188536</v>
+        <v>15.38237044188537</v>
       </c>
       <c r="O19" t="n">
-        <v>0.8712322498103333</v>
+        <v>0.8712322498103475</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -36120,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>3.960183850264244</v>
+        <v>3.960183850264215</v>
       </c>
       <c r="K20" t="n">
-        <v>39.24845756512417</v>
+        <v>39.24845756512414</v>
       </c>
       <c r="L20" t="n">
-        <v>72.91961169824634</v>
+        <v>72.91961169824631</v>
       </c>
       <c r="M20" t="n">
         <v>101.9301831078405</v>
@@ -36135,13 +36135,13 @@
         <v>106.6087881627675</v>
       </c>
       <c r="O20" t="n">
-        <v>91.9121810363778</v>
+        <v>91.91218103637777</v>
       </c>
       <c r="P20" t="n">
-        <v>55.79274776995396</v>
+        <v>55.79274776995393</v>
       </c>
       <c r="Q20" t="n">
-        <v>10.26945903142885</v>
+        <v>10.26945903142882</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>34.22817390707955</v>
+        <v>34.22817390707954</v>
       </c>
       <c r="L21" t="n">
-        <v>76.43779348440891</v>
+        <v>76.43779348440889</v>
       </c>
       <c r="M21" t="n">
         <v>101.9083545190845</v>
       </c>
       <c r="N21" t="n">
-        <v>114.0657868347609</v>
+        <v>114.0657868347608</v>
       </c>
       <c r="O21" t="n">
-        <v>89.7591559701349</v>
+        <v>89.75915597013484</v>
       </c>
       <c r="P21" t="n">
-        <v>59.34620864156221</v>
+        <v>59.34620864156201</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.896138864972485</v>
+        <v>6.896138864972514</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36284,16 +36284,16 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>7.903490235199513</v>
+        <v>7.903490235199499</v>
       </c>
       <c r="M22" t="n">
-        <v>10.47239902839752</v>
+        <v>10.4723990283975</v>
       </c>
       <c r="N22" t="n">
-        <v>15.38237044188539</v>
+        <v>15.38237044188537</v>
       </c>
       <c r="O22" t="n">
-        <v>0.8712322498103617</v>
+        <v>0.8712322498103475</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -36357,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>3.960183850264244</v>
+        <v>3.960183850264215</v>
       </c>
       <c r="K23" t="n">
-        <v>39.24845756512417</v>
+        <v>39.24845756512414</v>
       </c>
       <c r="L23" t="n">
-        <v>72.91961169824634</v>
+        <v>72.91961169824631</v>
       </c>
       <c r="M23" t="n">
         <v>101.9301831078405</v>
@@ -36372,13 +36372,13 @@
         <v>106.6087881627675</v>
       </c>
       <c r="O23" t="n">
-        <v>91.9121810363778</v>
+        <v>91.91218103637777</v>
       </c>
       <c r="P23" t="n">
-        <v>55.79274776995396</v>
+        <v>55.79274776995393</v>
       </c>
       <c r="Q23" t="n">
-        <v>10.26945903142885</v>
+        <v>10.26945903142882</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>34.22817390707955</v>
+        <v>34.22817390707954</v>
       </c>
       <c r="L24" t="n">
-        <v>76.43779348440891</v>
+        <v>76.43779348440889</v>
       </c>
       <c r="M24" t="n">
         <v>101.9083545190845</v>
       </c>
       <c r="N24" t="n">
-        <v>114.0657868347609</v>
+        <v>114.0657868347608</v>
       </c>
       <c r="O24" t="n">
-        <v>89.7591559701349</v>
+        <v>89.75915597013493</v>
       </c>
       <c r="P24" t="n">
-        <v>59.34620864156204</v>
+        <v>59.34620864156201</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.896138864972915</v>
+        <v>6.896138864972471</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36521,16 +36521,16 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>7.903490235199513</v>
+        <v>7.903490235199499</v>
       </c>
       <c r="M25" t="n">
-        <v>10.47239902839752</v>
+        <v>10.4723990283975</v>
       </c>
       <c r="N25" t="n">
-        <v>15.38237044188539</v>
+        <v>15.38237044188537</v>
       </c>
       <c r="O25" t="n">
-        <v>0.8712322498103617</v>
+        <v>0.8712322498103475</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -36594,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>3.960183850264244</v>
+        <v>3.960183850264215</v>
       </c>
       <c r="K26" t="n">
-        <v>39.24845756512417</v>
+        <v>39.24845756512414</v>
       </c>
       <c r="L26" t="n">
-        <v>72.91961169824634</v>
+        <v>72.91961169824631</v>
       </c>
       <c r="M26" t="n">
         <v>101.9301831078405</v>
@@ -36609,13 +36609,13 @@
         <v>106.6087881627675</v>
       </c>
       <c r="O26" t="n">
-        <v>91.9121810363778</v>
+        <v>91.91218103637777</v>
       </c>
       <c r="P26" t="n">
-        <v>55.79274776995396</v>
+        <v>55.79274776995393</v>
       </c>
       <c r="Q26" t="n">
-        <v>10.26945903142885</v>
+        <v>10.26945903142882</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>34.22817390707987</v>
+        <v>34.22817390707954</v>
       </c>
       <c r="L27" t="n">
-        <v>76.43779348440891</v>
+        <v>76.43779348440889</v>
       </c>
       <c r="M27" t="n">
         <v>101.9083545190845</v>
       </c>
       <c r="N27" t="n">
-        <v>114.0657868347609</v>
+        <v>114.0657868347608</v>
       </c>
       <c r="O27" t="n">
-        <v>89.7591559701349</v>
+        <v>89.75915597013484</v>
       </c>
       <c r="P27" t="n">
-        <v>59.34620864156204</v>
+        <v>59.34620864156201</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.896138864972485</v>
+        <v>6.896138864972471</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36758,16 +36758,16 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>7.903490235199513</v>
+        <v>7.903490235199499</v>
       </c>
       <c r="M28" t="n">
-        <v>10.47239902839752</v>
+        <v>10.4723990283975</v>
       </c>
       <c r="N28" t="n">
-        <v>15.38237044188539</v>
+        <v>15.38237044188537</v>
       </c>
       <c r="O28" t="n">
-        <v>0.8712322498103617</v>
+        <v>0.8712322498103475</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>34.22817390707962</v>
+        <v>34.22817390707954</v>
       </c>
       <c r="L33" t="n">
         <v>76.43779348440889</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>3.960183850264215</v>
+        <v>3.960183850264187</v>
       </c>
       <c r="K35" t="n">
-        <v>39.24845756512414</v>
+        <v>39.24845756512408</v>
       </c>
       <c r="L35" t="n">
-        <v>72.91961169824631</v>
+        <v>72.91961169824623</v>
       </c>
       <c r="M35" t="n">
-        <v>101.9301831078405</v>
+        <v>101.9301831078404</v>
       </c>
       <c r="N35" t="n">
-        <v>106.6087881627675</v>
+        <v>106.6087881627674</v>
       </c>
       <c r="O35" t="n">
-        <v>91.91218103637777</v>
+        <v>91.91218103637769</v>
       </c>
       <c r="P35" t="n">
-        <v>55.79274776995393</v>
+        <v>55.79274776995385</v>
       </c>
       <c r="Q35" t="n">
-        <v>10.26945903142882</v>
+        <v>10.26945903142877</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>34.22817390707954</v>
+        <v>34.22817390707949</v>
       </c>
       <c r="L36" t="n">
-        <v>76.43779348440889</v>
+        <v>76.43779348440883</v>
       </c>
       <c r="M36" t="n">
-        <v>101.9083545190845</v>
+        <v>101.9083545190844</v>
       </c>
       <c r="N36" t="n">
         <v>114.0657868347608</v>
       </c>
       <c r="O36" t="n">
-        <v>89.75915597013484</v>
+        <v>89.75915597013478</v>
       </c>
       <c r="P36" t="n">
-        <v>59.34620864156201</v>
+        <v>59.34620864156196</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.896138864972471</v>
+        <v>6.896138864972398</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37469,16 +37469,16 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>7.903490235199499</v>
+        <v>7.90349023519947</v>
       </c>
       <c r="M37" t="n">
-        <v>10.4723990283975</v>
+        <v>10.47239902839748</v>
       </c>
       <c r="N37" t="n">
-        <v>15.38237044188537</v>
+        <v>15.38237044188533</v>
       </c>
       <c r="O37" t="n">
-        <v>0.8712322498103475</v>
+        <v>0.8712322498103191</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -37542,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>3.960183850264215</v>
+        <v>3.960183850264187</v>
       </c>
       <c r="K38" t="n">
-        <v>39.24845756512414</v>
+        <v>39.24845756512408</v>
       </c>
       <c r="L38" t="n">
-        <v>72.91961169824631</v>
+        <v>72.91961169824623</v>
       </c>
       <c r="M38" t="n">
-        <v>101.9301831078405</v>
+        <v>101.9301831078404</v>
       </c>
       <c r="N38" t="n">
-        <v>106.6087881627675</v>
+        <v>106.6087881627674</v>
       </c>
       <c r="O38" t="n">
-        <v>91.91218103637777</v>
+        <v>91.91218103637769</v>
       </c>
       <c r="P38" t="n">
-        <v>55.79274776995393</v>
+        <v>55.79274776995385</v>
       </c>
       <c r="Q38" t="n">
-        <v>10.26945903142882</v>
+        <v>10.26945903142877</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>34.22817390707954</v>
+        <v>34.22817390707949</v>
       </c>
       <c r="L39" t="n">
-        <v>76.43779348440889</v>
+        <v>76.43779348440883</v>
       </c>
       <c r="M39" t="n">
-        <v>101.9083545190845</v>
+        <v>101.9083545190844</v>
       </c>
       <c r="N39" t="n">
         <v>114.0657868347608</v>
       </c>
       <c r="O39" t="n">
-        <v>89.75915597013484</v>
+        <v>89.75915597013478</v>
       </c>
       <c r="P39" t="n">
-        <v>59.34620864156201</v>
+        <v>59.34620864156196</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.896138864972471</v>
+        <v>6.896138864972428</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37706,16 +37706,16 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>7.903490235199499</v>
+        <v>7.90349023519947</v>
       </c>
       <c r="M40" t="n">
-        <v>10.4723990283975</v>
+        <v>10.47239902839748</v>
       </c>
       <c r="N40" t="n">
-        <v>15.38237044188537</v>
+        <v>15.38237044188533</v>
       </c>
       <c r="O40" t="n">
-        <v>0.8712322498103475</v>
+        <v>0.8712322498103191</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>3.960183850264215</v>
+        <v>3.960183850264187</v>
       </c>
       <c r="K41" t="n">
-        <v>39.24845756512414</v>
+        <v>39.24845756512408</v>
       </c>
       <c r="L41" t="n">
-        <v>72.91961169824631</v>
+        <v>72.91961169824623</v>
       </c>
       <c r="M41" t="n">
-        <v>101.9301831078405</v>
+        <v>101.9301831078404</v>
       </c>
       <c r="N41" t="n">
-        <v>106.6087881627675</v>
+        <v>106.6087881627674</v>
       </c>
       <c r="O41" t="n">
-        <v>91.91218103637777</v>
+        <v>91.91218103637769</v>
       </c>
       <c r="P41" t="n">
-        <v>55.79274776995393</v>
+        <v>55.79274776995385</v>
       </c>
       <c r="Q41" t="n">
-        <v>10.26945903142882</v>
+        <v>10.26945903142877</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>34.22817390707954</v>
+        <v>34.22817390707949</v>
       </c>
       <c r="L42" t="n">
-        <v>76.43779348440889</v>
+        <v>76.43779348440883</v>
       </c>
       <c r="M42" t="n">
-        <v>101.9083545190845</v>
+        <v>101.9083545190844</v>
       </c>
       <c r="N42" t="n">
         <v>114.0657868347608</v>
       </c>
       <c r="O42" t="n">
-        <v>89.75915597013484</v>
+        <v>89.75915597013478</v>
       </c>
       <c r="P42" t="n">
-        <v>59.34620864156201</v>
+        <v>59.34620864156196</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.896138864972471</v>
+        <v>6.896138864972428</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37943,16 +37943,16 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>7.903490235199499</v>
+        <v>7.90349023519947</v>
       </c>
       <c r="M43" t="n">
-        <v>10.4723990283975</v>
+        <v>10.47239902839748</v>
       </c>
       <c r="N43" t="n">
-        <v>15.38237044188537</v>
+        <v>15.38237044188533</v>
       </c>
       <c r="O43" t="n">
-        <v>0.8712322498103475</v>
+        <v>0.8712322498103191</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
